--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1409">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -2787,9 +2787,696 @@
     <t xml:space="preserve">2021-03-09T13:57:54.559304332Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-08T12:45:47.074472729Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:45:53.449528742Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2SS</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-08T12:46:06.699644816Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:47:11.575265040Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:46:50.075033548Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:46:51.325018380Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:49:08.201254635Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:49:34.701476950Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:49:37.826500574Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:53:14.453447807Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:53:27.828551305Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:54:37.704178107Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:54:42.454231633Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:54:55.704389507Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:54:58.079404581Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:56:16.955081816Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:56:22.830108378Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:58:16.581141109Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:58:19.706173951Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T13:10:43.712812280Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T13:10:46.087827513Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T13:12:07.963552860Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T13:12:18.339113014Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:08:44.004224638Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:09:52.254815500Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:08:59.754313460Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:11:30.130718216Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:09:50.129799427Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:09:53.629827652Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:10:11.755018794Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:10:32.380155826Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:10:28.005189895Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:11:06.255479002Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:11:32.005700298Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:12:00.630982449Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:11:36.005782568Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:13:42.631932091Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:12:06.881023479Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:12:55.381430472Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:13:38.631892700Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:13:42.131926361Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:13:53.257031508Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:14:07.382164307Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:14:29.007353698Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:14:43.132480247Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:15:09.382697215Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:15:07.882686391Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:16:31.633443494Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:16:28.508440230Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:16:52.133641878Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:17:10.508820230Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:17:40.759090814Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:18:16.634413167Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:19:03.134824846Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:21:18.011049945Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:22:19.636602586Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:23:12.637119757Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:23:14.762098396Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:24:57.888018295Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:25:31.763361884Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:29:08.890652064Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:29:20.015501944Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:16:20.199790457Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:17:14.200254244Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:17:24.575413836Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:17:40.575617155Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:29:53.708106342Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:30:11.958299658Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:30:38.708567322Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:31:25.084037852Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:31:35.959165122Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:32:15.834512269Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:32:36.084792467Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:33:14.460171781Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:35:22.836442747Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:36:27.712115065Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:36:31.837209079Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:37:17.462633485Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:38:02.213120847Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:39:02.088758300Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:39:36.714140747Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:40:23.839622373Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:42:44.341018652Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:43:15.841415917Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:21:47.536819331Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:23:51.913079021Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:25:15.413960526Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:23:57.663151924Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:24:36.413559400Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:24:23.913376656Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:24:33.913558357Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:25:34.164140990Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:26:10.539525825Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:27:27.165425334Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:27:34.915824890Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:27:56.915650197Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:28:33.290988601Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:28:41.541071614Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:28:56.916326559Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:28:44.916049123Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:29:06.916441001Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:30:30.292169418Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:30:45.667458125Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:31:37.667971717Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:31:46.043076820Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:32:52.293652878Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:32:53.168663636Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:34:40.419756213Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:34:55.670011196Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:35:08.669981497Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:35:31.545214354Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:36:53.796203801Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:37:07.296190659Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:43:45.800906323Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:44:27.301376919Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:12.030623468Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:19.530647613Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:26.155761772Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:31.780801955Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:36.655916253Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:42:44.530976254Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:45:24.157582281Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:45:30.157706833Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:46:20.533169226Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:46:30.533295627Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:46:49.908541174Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:46:51.158601492Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:47:09.658756314Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:47:14.283846201Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:47:20.283923460Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:47:22.783935224Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:50:03.535584683Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:50:37.035938172Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:51:37.286549367Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:51:56.661777354Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:53:04.162472674Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:54:02.038078357Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T14:08:05.296869977Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T14:08:10.297033756Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T12:57:56.929797898Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T12:59:34.430807048Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T12:59:46.680935932Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:00:07.806176046Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:01:23.056942692Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:03:43.058384693Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:05:06.934362019Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:05:41.184724381Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:07:54.061181332Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:08:21.686463403Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:08:29.936568228Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:09:48.937376648Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:09:56.687599909Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:10:30.937833444Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:12:58.564448877Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:13:06.314632311Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:14:14.315341644Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:15:12.440867535Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:14:50.690720601Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:15:18.440962752Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:15:22.816005521Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:18:32.442995131Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:19:23.443576288Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:20:13.569198794Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:19:56.943964087Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:20:06.319027551Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:23:03.695953650Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:23:07.696060743Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:23:11.696141541Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:23:45.821408355Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:25:49.447732074Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T13:26:32.823203430Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:31:18.084642263Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:32:04.335186287Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:31:54.960059855Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:31:56.460104440Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:32:13.710270267Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:32:25.960394025Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:32:57.460755424Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:33:05.085867914Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:33:05.960887913Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:33:34.086134340Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:36:26.337939679Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:37:28.713692154Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:37:54.214043509Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:38:13.589635739Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:38:52.839632388Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:39:00.589772181Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:51:57.597845151Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:52:50.223572368Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:14:56.503625258Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:15:15.253797358Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:15:22.253907211Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:15:44.629089621Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:16:02.379332586Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:16:32.879667119Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:17:14.755143507Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:17:19.880171411Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:17:54.630544959Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:18:56.506508301Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:21:44.008011681Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:22:16.008337095Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:24:34.009810295Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:24:39.259896647Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:24:44.509875808Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:25:22.010320584Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:25:50.385662156Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:29:09.512746256Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:28:41.137461067Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:29:13.887816914Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:29:28.013042050Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:30:16.013560662Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:31:07.264034837Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:32:15.889832521Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:34:32.641287833Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:36:18.642426097Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:36:44.892627758Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:38:15.893672431Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:41:41.646132713Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:42:20.646286919Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:42:24.021168019Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:42:29.896305136Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6SP</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP_treat</t>
   </si>
   <si>
@@ -3084,16 +3771,16 @@
     <t xml:space="preserve">2021-03-08T12:43:48.073395425Z</t>
   </si>
   <si>
-    <t xml:space="preserve">R3BP</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-03-17 12:18:45</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-13 13:34:12</t>
   </si>
   <si>
-    <t xml:space="preserve">R3BS</t>
+    <t xml:space="preserve">2021-03-16T12:06:46.003141827Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 70 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-16 12:23:24</t>
@@ -3102,7 +3789,7 @@
     <t xml:space="preserve">2021-03-12 11:40:58</t>
   </si>
   <si>
-    <t xml:space="preserve">R3SS</t>
+    <t xml:space="preserve">2021-03-15T12:10:59.446780677Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-16 12:30:25</t>
@@ -3111,7 +3798,7 @@
     <t xml:space="preserve">2021-03-12 11:49:12</t>
   </si>
   <si>
-    <t xml:space="preserve">R4BP</t>
+    <t xml:space="preserve">2021-03-15T12:19:46.660599323Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-24 13:50:13</t>
@@ -3120,7 +3807,7 @@
     <t xml:space="preserve">2021-03-20 11:50:00</t>
   </si>
   <si>
-    <t xml:space="preserve">R4SS</t>
+    <t xml:space="preserve">2021-03-23T13:37:28.152649342Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-23 13:09:52</t>
@@ -3129,7 +3816,7 @@
     <t xml:space="preserve">2021-03-19 12:05:37</t>
   </si>
   <si>
-    <t xml:space="preserve">R5BP</t>
+    <t xml:space="preserve">2021-03-22T12:54:59.677954409Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-31 11:36:22</t>
@@ -3138,7 +3825,7 @@
     <t xml:space="preserve">2021-03-27 11:23:04</t>
   </si>
   <si>
-    <t xml:space="preserve">R5SS</t>
+    <t xml:space="preserve">2021-03-30T11:24:31.330272460Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-03-30 12:23:12</t>
@@ -3147,7 +3834,10 @@
     <t xml:space="preserve">2021-03-26 11:51:01</t>
   </si>
   <si>
-    <t xml:space="preserve">R6SP</t>
+    <t xml:space="preserve">2021-03-29T12:12:59.252327264Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 21 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-07 11:11:36</t>
@@ -3569,10 +4259,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="170" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -3645,7 +4335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3666,12 +4356,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3682,15 +4372,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3711,17 +4405,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K499"/>
+  <dimension ref="A1:K631"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A489" activeCellId="0" sqref="A489"/>
+      <selection pane="bottomLeft" activeCell="E625" activeCellId="0" sqref="E625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="29.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="31.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15872,152 +16566,3386 @@
       <c r="G488" s="3"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="B489" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C489" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E489" s="4"/>
+      <c r="D489" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E489" s="4" t="s">
+        <v>922</v>
+      </c>
       <c r="F489" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J489" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="B490" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C490" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E490" s="4"/>
+      <c r="D490" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="E490" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="F490" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J490" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="B491" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C491" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E491" s="4"/>
+      <c r="D491" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E491" s="4" t="s">
+        <v>927</v>
+      </c>
       <c r="F491" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J491" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B492" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C492" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E492" s="4"/>
+      <c r="D492" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>929</v>
+      </c>
       <c r="F492" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J492" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="B493" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C493" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E493" s="4"/>
+      <c r="D493" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="E493" s="4" t="s">
+        <v>930</v>
+      </c>
       <c r="F493" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J493" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B494" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C494" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E494" s="4"/>
+      <c r="D494" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="E494" s="0" t="s">
+        <v>932</v>
+      </c>
       <c r="F494" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J494" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B495" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C495" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E495" s="4"/>
+      <c r="D495" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>934</v>
+      </c>
       <c r="F495" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J495" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B496" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C496" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="E496" s="4"/>
+      <c r="D496" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="E496" s="4" t="s">
+        <v>936</v>
+      </c>
       <c r="F496" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J496" s="0" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B497" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C497" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="J497" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B498" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C498" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D498" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E498" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="J498" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D499" s="5"/>
-      <c r="E499" s="5"/>
+      <c r="A499" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B499" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C499" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="J499" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B500" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C500" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="E500" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="J500" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="1"/>
+      <c r="G501" s="3"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B502" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C502" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E502" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J502" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B503" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C503" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J503" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B504" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C504" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="E504" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J504" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B505" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C505" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="E505" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J505" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B506" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C506" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E506" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J506" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B507" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C507" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J507" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B508" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C508" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="E508" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J508" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B509" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C509" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="E509" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J509" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B510" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C510" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="E510" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J510" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B511" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C511" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J511" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B512" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C512" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="E512" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J512" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B513" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C513" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="E513" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J513" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B514" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C514" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E514" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J514" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B515" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C515" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J515" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B516" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C516" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E516" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J516" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B517" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C517" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E517" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J517" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B518" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C518" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="E518" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J518" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B519" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C519" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J519" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B520" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C520" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J520" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B521" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C521" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="E521" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J521" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="E522" s="4"/>
+      <c r="F522" s="1"/>
+      <c r="G522" s="3"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B523" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C523" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="E523" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J523" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B524" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C524" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E524" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J524" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B525" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C525" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J525" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B526" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C526" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J526" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B527" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C527" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J527" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B528" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C528" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D528" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="E528" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J528" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B529" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C529" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J529" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B530" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C530" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J530" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B531" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C531" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J531" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B532" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C532" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E532" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J532" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B533" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C533" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D533" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E533" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J533" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="E534" s="4"/>
+      <c r="F534" s="1"/>
+      <c r="G534" s="3"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B535" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C535" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J535" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B536" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C536" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E536" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J536" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B537" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C537" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E537" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J537" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B538" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C538" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J538" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B539" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C539" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E539" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J539" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B540" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C540" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E540" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J540" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B541" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C541" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E541" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J541" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B542" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C542" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J542" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B543" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C543" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E543" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J543" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B544" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C544" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E544" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J544" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B545" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C545" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D545" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E545" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J545" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B546" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C546" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J546" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B547" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C547" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D547" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J547" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B548" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C548" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D548" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E548" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J548" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B549" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C549" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D549" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E549" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J549" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B550" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C550" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J550" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="1"/>
+      <c r="G551" s="3"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B552" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C552" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D552" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E552" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J552" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B553" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C553" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D553" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J553" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B554" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C554" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D554" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J554" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B555" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C555" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D555" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J555" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B556" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C556" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D556" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J556" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B557" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C557" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D557" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J557" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B558" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C558" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J558" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B559" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C559" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D559" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J559" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B560" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C560" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D560" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J560" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B561" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C561" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J561" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B562" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C562" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D562" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J562" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B563" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C563" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D563" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J563" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="E564" s="4"/>
+      <c r="F564" s="1"/>
+      <c r="G564" s="3"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B565" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C565" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D565" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J565" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B566" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C566" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D566" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J566" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B567" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C567" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D567" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J567" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B568" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C568" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D568" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J568" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B569" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C569" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D569" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J569" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B570" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C570" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D570" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E570" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J570" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B571" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C571" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J571" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B572" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C572" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J572" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B573" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C573" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D573" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J573" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B574" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C574" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J574" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B575" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C575" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E575" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J575" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B576" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C576" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D576" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E576" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J576" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B577" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C577" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D577" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E577" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J577" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B578" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C578" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D578" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E578" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J578" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B579" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C579" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D579" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E579" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J579" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B580" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C580" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D580" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E580" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J580" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="E581" s="4"/>
+      <c r="F581" s="1"/>
+      <c r="G581" s="3"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B582" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C582" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D582" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E582" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J582" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B583" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C583" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D583" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E583" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J583" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B584" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C584" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D584" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E584" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J584" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B585" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C585" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D585" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E585" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J585" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B586" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C586" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D586" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J586" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B587" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C587" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J587" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B588" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C588" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D588" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E588" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J588" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B589" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C589" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D589" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E589" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J589" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B590" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C590" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D590" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E590" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J590" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="E591" s="4"/>
+      <c r="F591" s="1"/>
+      <c r="G591" s="3"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B592" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C592" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E592" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J592" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B593" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C593" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D593" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E593" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J593" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B594" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C594" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D594" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E594" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J594" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B595" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C595" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D595" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E595" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J595" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B596" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C596" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D596" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E596" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J596" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B597" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C597" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D597" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J597" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B598" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C598" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E598" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J598" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B599" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C599" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D599" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J599" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B600" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C600" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D600" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E600" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J600" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B601" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C601" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D601" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E601" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J601" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B602" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C602" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D602" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E602" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J602" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B603" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C603" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D603" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E603" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J603" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B604" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C604" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D604" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E604" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J604" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B605" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C605" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D605" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J605" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B606" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C606" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E606" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J606" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B607" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C607" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D607" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E607" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J607" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="3"/>
+      <c r="C608" s="3"/>
+      <c r="E608" s="4"/>
+      <c r="F608" s="1"/>
+      <c r="G608" s="3"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B609" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C609" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E609" s="4"/>
+      <c r="F609" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J609" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C610" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E610" s="4"/>
+      <c r="F610" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J610" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C611" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E611" s="4"/>
+      <c r="F611" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J611" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C612" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E612" s="4"/>
+      <c r="F612" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J612" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C613" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E613" s="4"/>
+      <c r="F613" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J613" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C614" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E614" s="4"/>
+      <c r="F614" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J614" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C615" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E615" s="4"/>
+      <c r="F615" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J615" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B616" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C616" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E616" s="4"/>
+      <c r="F616" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J616" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B617" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C617" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E617" s="4"/>
+      <c r="F617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J617" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B618" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C618" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E618" s="4"/>
+      <c r="F618" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J618" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B619" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C619" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E619" s="4"/>
+      <c r="F619" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J619" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B620" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C620" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E620" s="4"/>
+      <c r="F620" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J620" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B621" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C621" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E621" s="4"/>
+      <c r="F621" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J621" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B622" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C622" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E622" s="4"/>
+      <c r="F622" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J622" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B623" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C623" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E623" s="4"/>
+      <c r="F623" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J623" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B624" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C624" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E624" s="4"/>
+      <c r="F624" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J624" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B625" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C625" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E625" s="4"/>
+      <c r="F625" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J625" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B626" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C626" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E626" s="4"/>
+      <c r="F626" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J626" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C627" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E627" s="4"/>
+      <c r="F627" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J627" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B628" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C628" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E628" s="4"/>
+      <c r="F628" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J628" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C629" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E629" s="4"/>
+      <c r="F629" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J629" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B630" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C630" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E630" s="4"/>
+      <c r="F630" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J630" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B631" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C631" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E631" s="4"/>
+      <c r="F631" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J631" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16037,8 +19965,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16050,7 +19978,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="8" style="3" width="1.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="29.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="3" width="21.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="3" width="11.54"/>
@@ -16058,73 +19986,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>922</v>
+        <v>1151</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>923</v>
+        <v>1152</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>924</v>
+        <v>1153</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>925</v>
+        <v>1154</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>926</v>
+        <v>1155</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>927</v>
+        <v>1156</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>928</v>
+        <v>1157</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>929</v>
+        <v>1158</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>930</v>
+        <v>1159</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>931</v>
+        <v>1160</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>932</v>
+        <v>1161</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>933</v>
+        <v>1162</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>934</v>
+        <v>1163</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="U1" s="6"/>
+        <v>1164</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -16133,37 +20061,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>945</v>
+        <v>1171</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>1174</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>945</v>
+      <c r="N2" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1174</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -16177,7 +20105,7 @@
       <c r="S2" s="4" t="n">
         <v>44334.4881944445</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="T2" s="7" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -16186,7 +20114,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -16195,37 +20123,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>948</v>
+        <v>1171</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>1177</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>948</v>
+      <c r="N3" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>1177</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -16239,7 +20167,7 @@
       <c r="S3" s="4" t="n">
         <v>44287.503587963</v>
       </c>
-      <c r="T3" s="8" t="n">
+      <c r="T3" s="7" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -16248,7 +20176,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -16257,37 +20185,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>951</v>
+        <v>1171</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>1180</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>951</v>
+      <c r="N4" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>1180</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -16301,7 +20229,7 @@
       <c r="S4" s="4" t="n">
         <v>44341.5120717593</v>
       </c>
-      <c r="T4" s="8" t="n">
+      <c r="T4" s="7" t="n">
         <v>44792</v>
       </c>
     </row>
@@ -16310,7 +20238,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -16319,37 +20247,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>954</v>
+        <v>1171</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>1183</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>954</v>
+      <c r="N5" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>1183</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -16363,25 +20291,25 @@
       <c r="S5" s="4" t="n">
         <v>44307.48125</v>
       </c>
-      <c r="T5" s="8" t="n">
+      <c r="T5" s="7" t="n">
         <v>44792</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -16390,40 +20318,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>956</v>
+        <v>1171</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1185</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>958</v>
+      <c r="N7" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>1187</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -16434,16 +20362,16 @@
       <c r="S7" s="4" t="n">
         <v>44258.5444907407</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="7" t="n">
         <v>44802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>959</v>
+        <v>1188</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>16</v>
@@ -16452,40 +20380,40 @@
         <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>960</v>
+        <v>1171</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>1189</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>960</v>
+      <c r="N8" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>1189</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>962</v>
+        <v>1191</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>44257.5193865741</v>
@@ -16497,7 +20425,7 @@
         <v>44257.5388310185</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>963</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16505,7 +20433,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -16514,40 +20442,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>964</v>
+        <v>1171</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1193</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>964</v>
+      <c r="N9" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>1193</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>966</v>
+        <v>1195</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -16558,7 +20486,7 @@
       <c r="S9" s="4" t="n">
         <v>44256.548912037</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="7" t="n">
         <v>44802</v>
       </c>
     </row>
@@ -16567,7 +20495,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -16576,40 +20504,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>967</v>
+        <v>1171</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>1196</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>967</v>
+      <c r="N10" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>1196</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>969</v>
+        <v>1198</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -16620,7 +20548,7 @@
       <c r="S10" s="4" t="n">
         <v>44343.4763194444</v>
       </c>
-      <c r="T10" s="8" t="n">
+      <c r="T10" s="7" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -16629,7 +20557,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -16638,40 +20566,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>970</v>
+        <v>1171</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>1199</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>970</v>
+      <c r="N11" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>1199</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>972</v>
+        <v>1201</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -16682,7 +20610,7 @@
       <c r="S11" s="4" t="n">
         <v>44341.4797685185</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="7" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -16691,7 +20619,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -16700,40 +20628,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>973</v>
+        <v>1171</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>1202</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>973</v>
+      <c r="N12" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>1202</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>975</v>
+        <v>1204</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -16744,7 +20672,7 @@
       <c r="S12" s="4" t="n">
         <v>44342.5156481481</v>
       </c>
-      <c r="T12" s="8" t="n">
+      <c r="T12" s="7" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -16753,7 +20681,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -16762,40 +20690,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>976</v>
+        <v>1171</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>1205</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>976</v>
+      <c r="N13" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>1205</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>978</v>
+        <v>1207</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -16806,7 +20734,7 @@
       <c r="S13" s="4" t="n">
         <v>44400.4875694445</v>
       </c>
-      <c r="T13" s="8" t="n">
+      <c r="T13" s="7" t="n">
         <v>44812</v>
       </c>
     </row>
@@ -16815,7 +20743,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -16824,40 +20752,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>979</v>
+        <v>1171</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>1208</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>979</v>
+      <c r="N14" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>1208</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>981</v>
+        <v>1210</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -16868,7 +20796,7 @@
       <c r="S14" s="4" t="n">
         <v>44399.5048726852</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="7" t="n">
         <v>44817</v>
       </c>
     </row>
@@ -16877,7 +20805,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -16886,40 +20814,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>982</v>
+        <v>1171</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>1211</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>982</v>
+      <c r="N15" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>1211</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>984</v>
+        <v>1213</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -16930,7 +20858,7 @@
       <c r="S15" s="4" t="n">
         <v>44398.4913425926</v>
       </c>
-      <c r="T15" s="8" t="n">
+      <c r="T15" s="7" t="n">
         <v>44817</v>
       </c>
       <c r="U15" s="0"/>
@@ -16940,7 +20868,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -16949,40 +20877,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>985</v>
+        <v>1171</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>1214</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>985</v>
+      <c r="N16" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>1214</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>987</v>
+        <v>1216</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -16993,11 +20921,11 @@
       <c r="S16" s="4" t="n">
         <v>44404.4818055556</v>
       </c>
-      <c r="T16" s="8" t="n">
+      <c r="T16" s="7" t="n">
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>988</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17005,7 +20933,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -17014,40 +20942,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>989</v>
+        <v>1171</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>1218</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>989</v>
+      <c r="N17" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>1218</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>991</v>
+        <v>1220</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -17058,7 +20986,7 @@
       <c r="S17" s="4" t="n">
         <v>44405.4751157407</v>
       </c>
-      <c r="T17" s="8" t="n">
+      <c r="T17" s="7" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -17067,7 +20995,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -17076,40 +21004,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>992</v>
+        <v>1171</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>1221</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>992</v>
+      <c r="N18" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>1221</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>994</v>
+        <v>1223</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -17120,7 +21048,7 @@
       <c r="S18" s="4" t="n">
         <v>44404.4858912037</v>
       </c>
-      <c r="T18" s="8" t="n">
+      <c r="T18" s="7" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -17129,7 +21057,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -17138,40 +21066,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>995</v>
+        <v>1171</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>1224</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>996</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>995</v>
+      <c r="N19" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>1224</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>997</v>
+        <v>1226</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -17182,7 +21110,7 @@
       <c r="S19" s="4" t="n">
         <v>44412.4603819444</v>
       </c>
-      <c r="T19" s="8" t="n">
+      <c r="T19" s="7" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -17191,7 +21119,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -17200,40 +21128,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>998</v>
+        <v>1171</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>1227</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>998</v>
+      <c r="N20" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>1227</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1000</v>
+        <v>1229</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -17244,7 +21172,7 @@
       <c r="S20" s="4" t="n">
         <v>44411.4709722222</v>
       </c>
-      <c r="T20" s="8" t="n">
+      <c r="T20" s="7" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -17253,7 +21181,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -17262,40 +21190,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>1001</v>
+        <v>1171</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>1230</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>1001</v>
+      <c r="N21" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>1230</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1003</v>
+        <v>1232</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -17306,7 +21234,7 @@
       <c r="S21" s="4" t="n">
         <v>44412.4629398148</v>
       </c>
-      <c r="T21" s="8" t="n">
+      <c r="T21" s="7" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -17315,7 +21243,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -17324,40 +21252,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>1004</v>
+        <v>1171</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>1233</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>1004</v>
+      <c r="N22" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>1233</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1006</v>
+        <v>1235</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -17368,7 +21296,7 @@
       <c r="S22" s="4" t="n">
         <v>44411.4741782407</v>
       </c>
-      <c r="T22" s="8" t="n">
+      <c r="T22" s="7" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -17377,7 +21305,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -17386,51 +21314,51 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>1007</v>
+        <v>1171</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>1236</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>1007</v>
+      <c r="N23" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>1236</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Q23" s="10" t="n">
+        <v>1238</v>
+      </c>
+      <c r="Q23" s="9" t="n">
         <v>44264.5567013889</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="R23" s="9" t="n">
         <v>44264.5671180556</v>
       </c>
-      <c r="S23" s="10" t="n">
+      <c r="S23" s="9" t="n">
         <v>44264.5775347222</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="T23" s="7" t="n">
         <v>44828</v>
       </c>
     </row>
@@ -17439,7 +21367,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -17448,55 +21376,55 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>1010</v>
+        <v>1171</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>1239</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N24" s="7" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>1010</v>
+      <c r="N24" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>1239</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="Q24" s="5" t="n">
+        <v>1241</v>
+      </c>
+      <c r="Q24" s="10" t="n">
         <v>44263.5583912037</v>
       </c>
-      <c r="R24" s="5" t="n">
+      <c r="R24" s="10" t="n">
         <v>44263.5688078704</v>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="10" t="n">
         <v>44263.579224537</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="T24" s="7" t="n">
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1013</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17504,7 +21432,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -17513,58 +21441,61 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>1014</v>
+        <v>1171</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>1243</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>1014</v>
+      <c r="N25" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>1243</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="Q25" s="5" t="n">
+        <v>1245</v>
+      </c>
+      <c r="Q25" s="10" t="n">
         <v>44264.5606134259</v>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="R25" s="10" t="n">
         <v>44264.5710300926</v>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="10" t="n">
         <v>44264.5814467593</v>
+      </c>
+      <c r="T25" s="7" t="n">
+        <v>44832</v>
       </c>
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -17573,95 +21504,125 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>1017</v>
+        <v>1171</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>1246</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>1017</v>
+      <c r="N26" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>1246</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1019</v>
+        <v>1248</v>
+      </c>
+      <c r="Q26" s="10" t="n">
+        <v>44263.5318055556</v>
+      </c>
+      <c r="R26" s="10" t="n">
+        <v>44263.5422222222</v>
+      </c>
+      <c r="S26" s="10" t="n">
+        <v>44263.5526388889</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>1020</v>
+        <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>1021</v>
+        <v>1171</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>1021</v>
+      <c r="N27" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q27" s="10" t="n">
+        <v>44271.506087963</v>
+      </c>
+      <c r="R27" s="10" t="n">
+        <v>44271.5165046296</v>
+      </c>
+      <c r="S27" s="10" t="n">
+        <v>44271.5269212963</v>
+      </c>
+      <c r="T27" s="7" t="n">
+        <v>44832</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -17670,45 +21631,60 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>1024</v>
+        <v>1171</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>1253</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>1024</v>
+      <c r="N28" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q28" s="10" t="n">
+        <v>44270.5090162037</v>
+      </c>
+      <c r="R28" s="10" t="n">
+        <v>44270.5194328704</v>
+      </c>
+      <c r="S28" s="10" t="n">
+        <v>44270.529849537</v>
+      </c>
+      <c r="T28" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -17717,45 +21693,60 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>1027</v>
+        <v>1171</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>1256</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>1027</v>
+      <c r="N29" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q29" s="10" t="n">
+        <v>44270.5151157407</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>44270.5255324074</v>
+      </c>
+      <c r="S29" s="10" t="n">
+        <v>44270.5359490741</v>
+      </c>
+      <c r="T29" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -17764,45 +21755,60 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>1030</v>
+        <v>1171</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>1259</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>1030</v>
+      <c r="N30" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Q30" s="10" t="n">
+        <v>44278.5690740741</v>
+      </c>
+      <c r="R30" s="10" t="n">
+        <v>44278.5794907407</v>
+      </c>
+      <c r="S30" s="10" t="n">
+        <v>44278.5899074074</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>1032</v>
+        <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -17811,45 +21817,60 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>1033</v>
+        <v>1171</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>1262</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>1033</v>
+      <c r="N31" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q31" s="11" t="n">
+        <v>44277.5395717593</v>
+      </c>
+      <c r="R31" s="11" t="n">
+        <v>44277.5499884259</v>
+      </c>
+      <c r="S31" s="11" t="n">
+        <v>44277.5604050926</v>
+      </c>
+      <c r="T31" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -17858,92 +21879,125 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>1036</v>
+        <v>1171</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>1265</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N32" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>1036</v>
+      <c r="N32" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q32" s="10" t="n">
+        <v>44285.4767476852</v>
+      </c>
+      <c r="R32" s="10" t="n">
+        <v>44285.4871643519</v>
+      </c>
+      <c r="S32" s="10" t="n">
+        <v>44285.4975810185</v>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>44832</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>1038</v>
+        <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>1039</v>
+        <v>1171</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>1268</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>1039</v>
+      <c r="N33" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q33" s="11" t="n">
+        <v>44284.5104050926</v>
+      </c>
+      <c r="R33" s="11" t="n">
+        <v>44284.5208217593</v>
+      </c>
+      <c r="S33" s="11" t="n">
+        <v>44284.5312384259</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>44832</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -17952,45 +22006,45 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>1042</v>
+        <v>1171</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>1272</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N34" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>1042</v>
+      <c r="N34" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1044</v>
+        <v>1274</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -17999,45 +22053,45 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>1045</v>
+        <v>1171</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>1275</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N35" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>1045</v>
+      <c r="N35" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1047</v>
+        <v>1277</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>182</v>
@@ -18046,45 +22100,45 @@
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>1048</v>
+        <v>1171</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>1278</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N36" s="7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>1048</v>
+      <c r="N36" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1050</v>
+        <v>1280</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -18093,45 +22147,45 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>1051</v>
+        <v>1171</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>1281</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>1051</v>
+      <c r="N37" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1053</v>
+        <v>1283</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -18140,45 +22194,45 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>1054</v>
+        <v>1171</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>1284</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N38" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>1054</v>
+      <c r="N38" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1056</v>
+        <v>1286</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>953</v>
+        <v>1182</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -18187,45 +22241,45 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>1057</v>
+        <v>1171</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>1287</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N39" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>1057</v>
+      <c r="N39" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1059</v>
+        <v>1289</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>941</v>
+        <v>1170</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>126</v>
@@ -18234,45 +22288,45 @@
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>1060</v>
+        <v>1171</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>1290</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>1060</v>
+      <c r="N40" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1062</v>
+        <v>1292</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -18281,45 +22335,45 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>1063</v>
+        <v>1171</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>1293</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>1063</v>
+      <c r="N41" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1065</v>
+        <v>1295</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>947</v>
+        <v>1176</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -18328,37 +22382,37 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>942</v>
+        <v>1171</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>1066</v>
+        <v>1171</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>1296</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>1066</v>
+      <c r="N42" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -18379,8 +22433,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18395,19 +22449,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1068</v>
+        <v>1298</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1069</v>
+        <v>1299</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1070</v>
+        <v>1300</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>922</v>
+        <v>1151</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1071</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18415,19 +22469,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1072</v>
+        <v>1182</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1302</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1073</v>
+        <v>1303</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>966</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18435,19 +22489,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1075</v>
+        <v>1179</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1305</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1076</v>
+        <v>1306</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>958</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18455,19 +22509,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1077</v>
+        <v>1176</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1307</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1078</v>
+        <v>1308</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>962</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18475,16 +22529,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1079</v>
+        <v>1170</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1309</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1080</v>
+        <v>1310</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18492,19 +22546,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>1081</v>
+        <v>1182</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1311</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1082</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1019</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18512,19 +22566,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1083</v>
+        <v>1179</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1313</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1084</v>
+        <v>1314</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1012</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18532,19 +22586,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1085</v>
+        <v>1176</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1315</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1086</v>
+        <v>1316</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1016</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18552,19 +22606,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1085</v>
+        <v>1170</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1087</v>
+        <v>1317</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1009</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18572,16 +22626,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1077</v>
+        <v>1182</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1307</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1088</v>
+        <v>1318</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18589,16 +22646,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1089</v>
+        <v>1179</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1319</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1090</v>
+        <v>1320</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18606,16 +22666,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1091</v>
+        <v>1176</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1321</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1092</v>
+        <v>1322</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18623,16 +22683,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1093</v>
+        <v>1170</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1323</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1094</v>
+        <v>1324</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18640,16 +22703,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>1095</v>
+        <v>1182</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1325</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1096</v>
+        <v>1326</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18657,16 +22723,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1097</v>
+        <v>1179</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1327</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1098</v>
+        <v>1328</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18674,16 +22740,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>1099</v>
+        <v>1176</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1329</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1100</v>
+        <v>1330</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18691,16 +22757,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1101</v>
+        <v>1170</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1331</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1102</v>
+        <v>1332</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1074</v>
+        <v>1304</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18708,16 +22777,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1089</v>
+        <v>1182</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1319</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1103</v>
+        <v>1333</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18725,16 +22797,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1105</v>
+        <v>1179</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1335</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1106</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18742,16 +22814,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>1107</v>
+        <v>1176</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1337</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1108</v>
+        <v>1338</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18759,16 +22831,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>1109</v>
+        <v>1170</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1339</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1110</v>
+        <v>1340</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18776,16 +22851,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>1111</v>
+        <v>1182</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1341</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1112</v>
+        <v>1342</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18793,16 +22868,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>1113</v>
+        <v>1179</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1343</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1114</v>
+        <v>1344</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18810,16 +22885,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>1115</v>
+        <v>1176</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1345</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1116</v>
+        <v>1346</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18827,16 +22902,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1117</v>
+        <v>1170</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1347</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1118</v>
+        <v>1348</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18844,16 +22919,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>1119</v>
+        <v>1182</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1349</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1120</v>
+        <v>1350</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18861,16 +22936,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>1121</v>
+        <v>1179</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1351</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1122</v>
+        <v>1352</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18878,16 +22953,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>1123</v>
+        <v>1176</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1353</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1124</v>
+        <v>1354</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18895,16 +22970,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>1119</v>
+        <v>1170</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1349</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1125</v>
+        <v>1355</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18912,16 +22987,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>1126</v>
+        <v>1182</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1356</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1127</v>
+        <v>1357</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18929,16 +23004,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>1128</v>
+        <v>1179</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1358</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1129</v>
+        <v>1359</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18946,16 +23021,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>1130</v>
+        <v>1176</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1360</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1131</v>
+        <v>1361</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18963,16 +23038,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>1132</v>
+        <v>1170</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1362</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1133</v>
+        <v>1363</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18980,16 +23055,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>1132</v>
+        <v>1182</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1362</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1134</v>
+        <v>1364</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18997,16 +23072,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>1135</v>
+        <v>1179</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1365</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1136</v>
+        <v>1366</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19014,16 +23089,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>1137</v>
+        <v>1176</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1367</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1138</v>
+        <v>1368</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19031,16 +23106,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>1139</v>
+        <v>1170</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1369</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1140</v>
+        <v>1370</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19048,16 +23123,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>1141</v>
+        <v>1182</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1371</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1142</v>
+        <v>1372</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19065,16 +23140,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>1132</v>
+        <v>1179</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1362</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1143</v>
+        <v>1373</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19082,16 +23157,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>1144</v>
+        <v>1176</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1374</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1145</v>
+        <v>1375</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19099,16 +23174,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>1146</v>
+        <v>1170</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1376</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1147</v>
+        <v>1377</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19116,19 +23191,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>1148</v>
+        <v>1182</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1378</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1149</v>
+        <v>1379</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>975</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19136,16 +23211,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>1150</v>
+        <v>1179</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1380</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1151</v>
+        <v>1381</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19153,19 +23228,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>1115</v>
+        <v>1176</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1345</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1152</v>
+        <v>1382</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>972</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19173,19 +23248,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>1153</v>
+        <v>1170</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1383</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1154</v>
+        <v>1384</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>969</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19193,16 +23268,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>1155</v>
+        <v>1182</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1385</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1156</v>
+        <v>1386</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19210,19 +23285,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>1157</v>
+        <v>1179</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1387</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1158</v>
+        <v>1388</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>981</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19230,19 +23305,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>1159</v>
+        <v>1176</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>1389</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1160</v>
+        <v>1390</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>984</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19250,19 +23325,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>1161</v>
+        <v>1170</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>1391</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1162</v>
+        <v>1392</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>978</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19270,19 +23345,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>1163</v>
+        <v>1182</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>1393</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1164</v>
+        <v>1394</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>994</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19290,19 +23365,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>1165</v>
+        <v>1179</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>1395</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1166</v>
+        <v>1396</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>987</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19310,19 +23385,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>1167</v>
+        <v>1176</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>1397</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1168</v>
+        <v>1398</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>991</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19330,16 +23405,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>1169</v>
+        <v>1170</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>1399</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1170</v>
+        <v>1400</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19347,19 +23422,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>1171</v>
+        <v>1182</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>1401</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1172</v>
+        <v>1402</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1006</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19367,19 +23442,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>1173</v>
+        <v>1179</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>1403</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1174</v>
+        <v>1404</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1000</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19387,19 +23462,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>1175</v>
+        <v>1176</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>1405</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1176</v>
+        <v>1406</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1003</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19407,19 +23482,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>1177</v>
+        <v>1170</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>1407</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1178</v>
+        <v>1408</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1104</v>
+        <v>1334</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>997</v>
+        <v>1226</v>
       </c>
     </row>
   </sheetData>

--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="1507">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -3474,9 +3474,303 @@
     <t xml:space="preserve">2021-03-29T12:42:29.896305136Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-06T11:00:48.233678541Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:00:50.733708872Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">R6SP</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-06T11:00:54.483771529Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:00:56.358724503Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:01:09.608852596Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:01:18.108953897Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:01:23.608948401Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:02:18.484512782Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:01:20.108957262Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:01:48.734252344Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:02:44.484857922Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:02:52.984934014Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:03:11.110130575Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:04:20.485833188Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:03:24.610269192Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:04:03.235620004Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:04:24.360876009Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:05:03.236309658Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:05:01.986229541Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:05:06.486331358Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:05:11.986367124Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:06:25.237137529Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:06:38.487285583Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:06:40.737314485Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:14:41.617362484Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:14:56.117965774Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:16:23.493898904Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:16:28.868571263Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:19:59.745720409Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:20:07.995795919Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:20:53.121220685Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:20:59.746385660Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:22:30.247306702Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:22:37.997393750Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:23:11.872732299Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:23:18.122805174Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:23:40.373032369Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:23:45.873105257Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:24:06.373386024Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T11:24:15.373468717Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:31:32.857941850Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:31:46.358024930Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:31:48.983049028Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:33:09.483548687Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:33:36.108661938Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:00.983850712Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:33:49.108755026Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:01.858837872Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:07.483856457Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:30.608996288Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:10.733899174Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:17.858918647Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:20.608960230Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:29.733994404Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:34.484058399Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:39.109021794Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:53.984143278Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:09.734229936Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:34:56.609162384Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:20.484276609Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:11.734266724Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:14.109277468Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:31.484379189Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:35:33.984364812Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:36:13.609629017Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:36:44.609810967Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:01.984911602Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:45.735152421Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:21.735025365Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:37.735128513Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:42.485162250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:46.610162423Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:53.485220102Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:56.735249079Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:37:57.485250970Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:38:03.985283724Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:40:07.361036627Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:40:26.611151202Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:41:28.736465564Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:41:41.236565725Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:42:25.861881293Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:43:17.487186886Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:43:27.487306177Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:43:33.487330027Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:50:41.490036857Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:50:45.865063688Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:52:26.490755974Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:52:37.241226200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:54:07.366360225Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:54:18.116525038Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:54:16.866371639Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:54:17.491517906Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:56:37.617411798Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:56:40.492474858Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T13:01:01.369128638Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T13:01:11.869135209Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7BP</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP_treat</t>
   </si>
   <si>
@@ -3846,7 +4140,7 @@
     <t xml:space="preserve">2021-04-03 11:26:52</t>
   </si>
   <si>
-    <t xml:space="preserve">R6SS</t>
+    <t xml:space="preserve">2021-04-06T10:58:42.107330175Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-06 12:42:49</t>
@@ -3855,7 +4149,7 @@
     <t xml:space="preserve">2021-04-02 10:52:58</t>
   </si>
   <si>
-    <t xml:space="preserve">R7BP</t>
+    <t xml:space="preserve">2021-04-05T12:29:12.982122808Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-14 11:32:33</t>
@@ -4405,12 +4699,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E625" activeCellId="0" sqref="E625"/>
+      <selection pane="bottomLeft" activeCell="E669" activeCellId="0" sqref="E669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19534,416 +19828,1660 @@
       <c r="G608" s="3"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="B609" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C609" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E609" s="4"/>
+      <c r="D609" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E609" s="4" t="s">
+        <v>1151</v>
+      </c>
       <c r="F609" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G609" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J609" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B610" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C610" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E610" s="4"/>
+      <c r="D610" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E610" s="4" t="s">
+        <v>1154</v>
+      </c>
       <c r="F610" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G610" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J610" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B611" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C611" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E611" s="4"/>
+      <c r="D611" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E611" s="4" t="s">
+        <v>1156</v>
+      </c>
       <c r="F611" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G611" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J611" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B612" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C612" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E612" s="4"/>
+      <c r="D612" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E612" s="4" t="s">
+        <v>1158</v>
+      </c>
       <c r="F612" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G612" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J612" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B613" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C613" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E613" s="4"/>
+      <c r="D613" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E613" s="4" t="s">
+        <v>1160</v>
+      </c>
       <c r="F613" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G613" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J613" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B614" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C614" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E614" s="4"/>
+      <c r="D614" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>1162</v>
+      </c>
       <c r="F614" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G614" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J614" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B615" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C615" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E615" s="4"/>
+      <c r="D615" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E615" s="4" t="s">
+        <v>1164</v>
+      </c>
       <c r="F615" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G615" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J615" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B616" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C616" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E616" s="4"/>
+      <c r="D616" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E616" s="4" t="s">
+        <v>1166</v>
+      </c>
       <c r="F616" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G616" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J616" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B617" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C617" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E617" s="4"/>
+      <c r="D617" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E617" s="4" t="s">
+        <v>1168</v>
+      </c>
       <c r="F617" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J617" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B618" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C618" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E618" s="4"/>
+      <c r="D618" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E618" s="4" t="s">
+        <v>1170</v>
+      </c>
       <c r="F618" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G618" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J618" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B619" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C619" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E619" s="4"/>
+      <c r="D619" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E619" s="4" t="s">
+        <v>1172</v>
+      </c>
       <c r="F619" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G619" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J619" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="B620" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C620" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E620" s="4"/>
+      <c r="D620" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E620" s="4" t="s">
+        <v>1174</v>
+      </c>
       <c r="F620" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G620" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J620" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B621" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C621" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E621" s="4"/>
+      <c r="D621" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E621" s="4" t="s">
+        <v>1176</v>
+      </c>
       <c r="F621" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J621" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B622" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C622" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E622" s="4"/>
+      <c r="D622" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E622" s="4" t="s">
+        <v>1178</v>
+      </c>
       <c r="F622" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G622" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J622" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="B623" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C623" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E623" s="4"/>
+      <c r="D623" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E623" s="4" t="s">
+        <v>1180</v>
+      </c>
       <c r="F623" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J623" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="B624" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C624" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E624" s="4"/>
+      <c r="D624" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E624" s="4" t="s">
+        <v>1182</v>
+      </c>
       <c r="F624" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G624" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J624" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B625" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C625" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E625" s="4"/>
+      <c r="D625" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>1184</v>
+      </c>
       <c r="F625" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G625" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J625" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B626" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C626" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E626" s="4"/>
+      <c r="D626" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E626" s="4" t="s">
+        <v>1186</v>
+      </c>
       <c r="F626" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G626" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J626" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B627" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C627" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E627" s="4"/>
+      <c r="D627" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E627" s="4" t="s">
+        <v>1188</v>
+      </c>
       <c r="F627" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G627" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J627" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B628" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C628" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E628" s="4"/>
+      <c r="D628" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E628" s="4" t="s">
+        <v>1190</v>
+      </c>
       <c r="F628" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G628" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="J628" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B629" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C629" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
       <c r="E629" s="4"/>
-      <c r="F629" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G629" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="J629" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="F629" s="1"/>
+      <c r="G629" s="3"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="B630" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C630" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E630" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E630" s="4" t="s">
+        <v>1192</v>
+      </c>
       <c r="F630" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G630" s="3" t="s">
-        <v>1150</v>
+        <v>1193</v>
       </c>
       <c r="J630" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B631" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C631" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E631" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E631" s="4" t="s">
+        <v>1195</v>
+      </c>
       <c r="F631" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G631" s="3" t="s">
-        <v>1150</v>
+        <v>1193</v>
       </c>
       <c r="J631" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B632" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C632" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E632" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J632" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B633" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C633" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D633" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E633" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J633" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B634" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C634" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J634" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B635" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C635" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D635" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J635" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B636" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C636" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D636" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J636" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B637" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C637" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D637" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J637" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B638" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C638" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D638" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J638" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B639" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C639" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D639" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J639" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B640" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C640" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D640" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J640" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B641" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C641" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J641" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B642" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C642" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J642" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B643" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C643" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J643" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B644" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C644" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D644" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J644" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B645" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C645" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J645" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B646" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C646" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D646" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J646" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B647" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C647" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E647" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J647" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B648" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C648" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D648" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J648" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B649" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C649" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J649" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B650" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C650" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D650" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J650" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B651" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C651" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D651" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J651" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B652" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C652" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D652" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J652" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B653" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C653" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D653" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J653" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B654" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C654" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D654" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J654" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B655" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C655" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D655" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J655" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B656" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C656" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D656" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J656" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B657" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C657" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D657" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J657" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
+      <c r="E658" s="4"/>
+      <c r="F658" s="1"/>
+      <c r="G658" s="3"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C659" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E659" s="4"/>
+      <c r="F659" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J659" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C660" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E660" s="4"/>
+      <c r="F660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J660" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B661" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C661" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E661" s="4"/>
+      <c r="F661" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J661" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C662" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E662" s="4"/>
+      <c r="F662" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J662" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C663" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E663" s="4"/>
+      <c r="F663" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J663" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B664" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C664" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E664" s="4"/>
+      <c r="F664" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J664" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C665" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E665" s="4"/>
+      <c r="F665" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J665" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C666" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E666" s="4"/>
+      <c r="F666" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J666" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C667" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E667" s="4"/>
+      <c r="F667" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J667" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B668" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C668" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E668" s="4"/>
+      <c r="F668" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J668" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B669" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C669" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E669" s="4"/>
+      <c r="F669" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J669" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C670" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E670" s="4"/>
+      <c r="F670" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J670" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C671" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E671" s="4"/>
+      <c r="F671" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J671" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B672" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C672" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E672" s="4"/>
+      <c r="F672" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J672" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C673" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E673" s="4"/>
+      <c r="F673" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J673" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C674" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E674" s="4"/>
+      <c r="F674" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J674" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E675" s="4"/>
+      <c r="F675" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J675" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C676" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E676" s="4"/>
+      <c r="F676" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J676" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B677" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C677" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E677" s="4"/>
+      <c r="F677" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J677" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B678" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C678" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E678" s="4"/>
+      <c r="F678" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J678" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C679" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E679" s="4"/>
+      <c r="F679" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J679" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B680" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E680" s="4"/>
+      <c r="F680" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J680" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19965,8 +21503,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19986,64 +21524,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1151</v>
+        <v>1249</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1152</v>
+        <v>1250</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1153</v>
+        <v>1251</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1154</v>
+        <v>1252</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1155</v>
+        <v>1253</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1156</v>
+        <v>1254</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1157</v>
+        <v>1255</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1158</v>
+        <v>1256</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1159</v>
+        <v>1257</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1160</v>
+        <v>1258</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1161</v>
+        <v>1259</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1163</v>
+        <v>1261</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1164</v>
+        <v>1262</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1165</v>
+        <v>1263</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>1166</v>
+        <v>1264</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1167</v>
+        <v>1265</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>1168</v>
+        <v>1266</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>1169</v>
+        <v>1267</v>
       </c>
       <c r="U1" s="5"/>
     </row>
@@ -20052,7 +21590,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -20061,37 +21599,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>1174</v>
+        <v>1272</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>1175</v>
+        <v>1273</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>1174</v>
+        <v>1272</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -20114,7 +21652,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -20123,37 +21661,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1177</v>
+        <v>1275</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1178</v>
+        <v>1276</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1177</v>
+        <v>1275</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -20176,7 +21714,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -20185,37 +21723,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>1180</v>
+        <v>1278</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>1181</v>
+        <v>1279</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>1180</v>
+        <v>1278</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -20238,7 +21776,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -20247,37 +21785,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>1183</v>
+        <v>1281</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1184</v>
+        <v>1282</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>1183</v>
+        <v>1281</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -20309,7 +21847,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -20318,40 +21856,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1185</v>
+        <v>1283</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>1186</v>
+        <v>1284</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>1185</v>
+        <v>1283</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>1187</v>
+        <v>1285</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -20368,10 +21906,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1188</v>
+        <v>1286</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>16</v>
@@ -20380,40 +21918,40 @@
         <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1189</v>
+        <v>1287</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>1190</v>
+        <v>1288</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>1189</v>
+        <v>1287</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>1191</v>
+        <v>1289</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>44257.5193865741</v>
@@ -20425,7 +21963,7 @@
         <v>44257.5388310185</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>1192</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20433,7 +21971,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -20442,40 +21980,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>1193</v>
+        <v>1291</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1194</v>
+        <v>1292</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>1193</v>
+        <v>1291</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>1195</v>
+        <v>1293</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -20495,7 +22033,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -20504,40 +22042,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>1196</v>
+        <v>1294</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>1197</v>
+        <v>1295</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>1196</v>
+        <v>1294</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>1198</v>
+        <v>1296</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -20557,7 +22095,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -20566,40 +22104,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>1199</v>
+        <v>1297</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>1200</v>
+        <v>1298</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>1199</v>
+        <v>1297</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>1201</v>
+        <v>1299</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -20619,7 +22157,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -20628,40 +22166,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>1202</v>
+        <v>1300</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>1203</v>
+        <v>1301</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>1202</v>
+        <v>1300</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>1204</v>
+        <v>1302</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -20681,7 +22219,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -20690,40 +22228,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>1205</v>
+        <v>1303</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>1206</v>
+        <v>1304</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>1205</v>
+        <v>1303</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1207</v>
+        <v>1305</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -20743,7 +22281,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -20752,40 +22290,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>1208</v>
+        <v>1306</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>1209</v>
+        <v>1307</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>1208</v>
+        <v>1306</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1210</v>
+        <v>1308</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -20805,7 +22343,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -20814,40 +22352,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>1211</v>
+        <v>1309</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>1212</v>
+        <v>1310</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>1211</v>
+        <v>1309</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1213</v>
+        <v>1311</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -20868,7 +22406,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -20877,40 +22415,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>1214</v>
+        <v>1312</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>1215</v>
+        <v>1313</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>1214</v>
+        <v>1312</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>1216</v>
+        <v>1314</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -20925,7 +22463,7 @@
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1217</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20933,7 +22471,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -20942,40 +22480,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>1218</v>
+        <v>1316</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>1219</v>
+        <v>1317</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>1218</v>
+        <v>1316</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>1220</v>
+        <v>1318</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -20995,7 +22533,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -21004,40 +22542,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>1221</v>
+        <v>1319</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>1222</v>
+        <v>1320</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1221</v>
+        <v>1319</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>1223</v>
+        <v>1321</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -21057,7 +22595,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -21066,40 +22604,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>1224</v>
+        <v>1322</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>1225</v>
+        <v>1323</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>1224</v>
+        <v>1322</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>1226</v>
+        <v>1324</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -21119,7 +22657,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -21128,40 +22666,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>1227</v>
+        <v>1325</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>1228</v>
+        <v>1326</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>1227</v>
+        <v>1325</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1229</v>
+        <v>1327</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -21181,7 +22719,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -21190,40 +22728,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>1230</v>
+        <v>1328</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>1231</v>
+        <v>1329</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>1230</v>
+        <v>1328</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1232</v>
+        <v>1330</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -21243,7 +22781,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -21252,40 +22790,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>1233</v>
+        <v>1331</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>1234</v>
+        <v>1332</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>1233</v>
+        <v>1331</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1235</v>
+        <v>1333</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -21305,7 +22843,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -21314,40 +22852,40 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>1236</v>
+        <v>1334</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>1237</v>
+        <v>1335</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>1236</v>
+        <v>1334</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1238</v>
+        <v>1336</v>
       </c>
       <c r="Q23" s="9" t="n">
         <v>44264.5567013889</v>
@@ -21367,7 +22905,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -21376,40 +22914,40 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>1239</v>
+        <v>1337</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>1240</v>
+        <v>1338</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>1239</v>
+        <v>1337</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1241</v>
+        <v>1339</v>
       </c>
       <c r="Q24" s="10" t="n">
         <v>44263.5583912037</v>
@@ -21424,7 +22962,7 @@
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1242</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21432,7 +22970,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -21441,40 +22979,40 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>1243</v>
+        <v>1341</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>1244</v>
+        <v>1342</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>1243</v>
+        <v>1341</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1245</v>
+        <v>1343</v>
       </c>
       <c r="Q25" s="10" t="n">
         <v>44264.5606134259</v>
@@ -21495,7 +23033,7 @@
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -21504,40 +23042,40 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>1246</v>
+        <v>1344</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>1247</v>
+        <v>1345</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>1246</v>
+        <v>1344</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1248</v>
+        <v>1346</v>
       </c>
       <c r="Q26" s="10" t="n">
         <v>44263.5318055556</v>
@@ -21557,7 +23095,7 @@
         <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>76</v>
@@ -21566,40 +23104,40 @@
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>1249</v>
+        <v>1347</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>1250</v>
+        <v>1348</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1249</v>
+        <v>1347</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>1251</v>
+        <v>1349</v>
       </c>
       <c r="Q27" s="10" t="n">
         <v>44271.506087963</v>
@@ -21614,7 +23152,7 @@
         <v>44832</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1252</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21622,7 +23160,7 @@
         <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -21631,40 +23169,40 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>1253</v>
+        <v>1351</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>1254</v>
+        <v>1352</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>1253</v>
+        <v>1351</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>1255</v>
+        <v>1353</v>
       </c>
       <c r="Q28" s="10" t="n">
         <v>44270.5090162037</v>
@@ -21684,7 +23222,7 @@
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -21693,40 +23231,40 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>1256</v>
+        <v>1354</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>1257</v>
+        <v>1355</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>1256</v>
+        <v>1354</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>1258</v>
+        <v>1356</v>
       </c>
       <c r="Q29" s="10" t="n">
         <v>44270.5151157407</v>
@@ -21746,7 +23284,7 @@
         <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -21755,40 +23293,40 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>1259</v>
+        <v>1357</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>1260</v>
+        <v>1358</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>1259</v>
+        <v>1357</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1261</v>
+        <v>1359</v>
       </c>
       <c r="Q30" s="10" t="n">
         <v>44278.5690740741</v>
@@ -21808,7 +23346,7 @@
         <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -21817,40 +23355,40 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>1262</v>
+        <v>1360</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>1263</v>
+        <v>1361</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>1262</v>
+        <v>1360</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>1264</v>
+        <v>1362</v>
       </c>
       <c r="Q31" s="11" t="n">
         <v>44277.5395717593</v>
@@ -21870,7 +23408,7 @@
         <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -21879,40 +23417,40 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>1265</v>
+        <v>1363</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>1266</v>
+        <v>1364</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>1265</v>
+        <v>1363</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1267</v>
+        <v>1365</v>
       </c>
       <c r="Q32" s="10" t="n">
         <v>44285.4767476852</v>
@@ -21932,7 +23470,7 @@
         <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>16</v>
@@ -21941,40 +23479,40 @@
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>1268</v>
+        <v>1366</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>1269</v>
+        <v>1367</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>1268</v>
+        <v>1366</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>1270</v>
+        <v>1368</v>
       </c>
       <c r="Q33" s="11" t="n">
         <v>44284.5104050926</v>
@@ -21989,15 +23527,15 @@
         <v>44832</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1271</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -22006,45 +23544,60 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>1272</v>
+        <v>1370</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>1273</v>
+        <v>1371</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>1272</v>
+        <v>1370</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q34" s="10" t="n">
+        <v>44292.4588194444</v>
+      </c>
+      <c r="R34" s="10" t="n">
+        <v>44292.4692361111</v>
+      </c>
+      <c r="S34" s="10" t="n">
+        <v>44292.4796527778</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>44833</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>1274</v>
+        <v>1193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -22053,45 +23606,60 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>1275</v>
+        <v>1373</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>1276</v>
+        <v>1374</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1275</v>
+        <v>1373</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q35" s="10" t="n">
+        <v>44291.5216666667</v>
+      </c>
+      <c r="R35" s="10" t="n">
+        <v>44291.5320833333</v>
+      </c>
+      <c r="S35" s="10" t="n">
+        <v>44291.5425</v>
+      </c>
+      <c r="T35" s="7" t="n">
+        <v>44833</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1277</v>
+        <v>1248</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>182</v>
@@ -22100,45 +23668,45 @@
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>1278</v>
+        <v>1376</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>1279</v>
+        <v>1377</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>1278</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1280</v>
+        <v>1378</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -22147,45 +23715,45 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>1281</v>
+        <v>1379</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>1282</v>
+        <v>1380</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>1281</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1283</v>
+        <v>1381</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -22194,45 +23762,45 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>1284</v>
+        <v>1382</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>1285</v>
+        <v>1383</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>1284</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1286</v>
+        <v>1384</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -22241,45 +23809,45 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>1287</v>
+        <v>1385</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>1288</v>
+        <v>1386</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>1287</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1289</v>
+        <v>1387</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>126</v>
@@ -22288,45 +23856,45 @@
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>1290</v>
+        <v>1388</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>1291</v>
+        <v>1389</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>1290</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1292</v>
+        <v>1390</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -22335,45 +23903,45 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>1293</v>
+        <v>1391</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>1294</v>
+        <v>1392</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1293</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1295</v>
+        <v>1393</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -22382,37 +23950,37 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1171</v>
+        <v>1269</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>1172</v>
+        <v>1270</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>1173</v>
+        <v>1271</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>1296</v>
+        <v>1394</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>1297</v>
+        <v>1395</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1296</v>
+        <v>1394</v>
       </c>
     </row>
   </sheetData>
@@ -22433,8 +24001,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22449,19 +24017,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1298</v>
+        <v>1396</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1299</v>
+        <v>1397</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1300</v>
+        <v>1398</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1151</v>
+        <v>1249</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1301</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22469,19 +24037,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>1302</v>
+        <v>1400</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1303</v>
+        <v>1401</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1195</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22489,19 +24057,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1305</v>
+        <v>1403</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1306</v>
+        <v>1404</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1187</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22509,19 +24077,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1307</v>
+        <v>1405</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1308</v>
+        <v>1406</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1191</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22529,16 +24097,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1309</v>
+        <v>1407</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1310</v>
+        <v>1408</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22546,19 +24114,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1311</v>
+        <v>1409</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1312</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1248</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22566,19 +24134,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1313</v>
+        <v>1411</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1314</v>
+        <v>1412</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1241</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22586,19 +24154,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1315</v>
+        <v>1413</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1316</v>
+        <v>1414</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1245</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22606,19 +24174,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1315</v>
+        <v>1413</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1317</v>
+        <v>1415</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1238</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22626,19 +24194,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1307</v>
+        <v>1405</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1318</v>
+        <v>1416</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1258</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22646,19 +24214,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1319</v>
+        <v>1417</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1320</v>
+        <v>1418</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1255</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22666,16 +24234,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1321</v>
+        <v>1419</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1322</v>
+        <v>1420</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22683,19 +24251,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1323</v>
+        <v>1421</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1324</v>
+        <v>1422</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1251</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22703,19 +24271,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1325</v>
+        <v>1423</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1326</v>
+        <v>1424</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1264</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22723,16 +24291,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1327</v>
+        <v>1425</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1328</v>
+        <v>1426</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22740,16 +24308,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1329</v>
+        <v>1427</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1330</v>
+        <v>1428</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22757,19 +24325,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1331</v>
+        <v>1429</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1332</v>
+        <v>1430</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1304</v>
+        <v>1402</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1261</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22777,19 +24345,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1319</v>
+        <v>1417</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1333</v>
+        <v>1431</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1270</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22797,16 +24365,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1335</v>
+        <v>1433</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1336</v>
+        <v>1434</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22814,16 +24382,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1337</v>
+        <v>1435</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1338</v>
+        <v>1436</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22831,19 +24399,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>1339</v>
+        <v>1437</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1340</v>
+        <v>1438</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1267</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22851,16 +24419,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1341</v>
+        <v>1439</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1342</v>
+        <v>1440</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22868,16 +24439,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1343</v>
+        <v>1441</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1344</v>
+        <v>1442</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22885,16 +24456,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1345</v>
+        <v>1443</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1346</v>
+        <v>1444</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22902,16 +24476,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>1347</v>
+        <v>1445</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1348</v>
+        <v>1446</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22919,16 +24493,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1349</v>
+        <v>1447</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1350</v>
+        <v>1448</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22936,16 +24510,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1351</v>
+        <v>1449</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1352</v>
+        <v>1450</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22953,16 +24527,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1353</v>
+        <v>1451</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1354</v>
+        <v>1452</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22970,16 +24544,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1349</v>
+        <v>1447</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1355</v>
+        <v>1453</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22987,16 +24561,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1357</v>
+        <v>1455</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23004,16 +24578,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1358</v>
+        <v>1456</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1359</v>
+        <v>1457</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23021,16 +24595,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1360</v>
+        <v>1458</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1361</v>
+        <v>1459</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23038,16 +24612,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1362</v>
+        <v>1460</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1363</v>
+        <v>1461</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23055,16 +24629,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1362</v>
+        <v>1460</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1364</v>
+        <v>1462</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23072,16 +24646,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1365</v>
+        <v>1463</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1366</v>
+        <v>1464</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23089,16 +24663,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1367</v>
+        <v>1465</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1368</v>
+        <v>1466</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23106,16 +24680,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>1369</v>
+        <v>1467</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1370</v>
+        <v>1468</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23123,16 +24697,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1371</v>
+        <v>1469</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1372</v>
+        <v>1470</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23140,16 +24714,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1362</v>
+        <v>1460</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1373</v>
+        <v>1471</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23157,16 +24731,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1374</v>
+        <v>1472</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1375</v>
+        <v>1473</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23174,16 +24748,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1376</v>
+        <v>1474</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1377</v>
+        <v>1475</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23191,19 +24765,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1378</v>
+        <v>1476</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1379</v>
+        <v>1477</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1204</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23211,16 +24785,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1380</v>
+        <v>1478</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1381</v>
+        <v>1479</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23228,19 +24802,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1345</v>
+        <v>1443</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1382</v>
+        <v>1480</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1201</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23248,19 +24822,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1383</v>
+        <v>1481</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1384</v>
+        <v>1482</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1198</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23268,16 +24842,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>1385</v>
+        <v>1483</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1386</v>
+        <v>1484</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23285,19 +24859,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1387</v>
+        <v>1485</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1388</v>
+        <v>1486</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1210</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23305,19 +24879,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1389</v>
+        <v>1487</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1390</v>
+        <v>1488</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1213</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23325,19 +24899,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1391</v>
+        <v>1489</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1392</v>
+        <v>1490</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1207</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23345,19 +24919,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1393</v>
+        <v>1491</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1394</v>
+        <v>1492</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1223</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23365,19 +24939,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1395</v>
+        <v>1493</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1396</v>
+        <v>1494</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1216</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23385,19 +24959,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>1397</v>
+        <v>1495</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1398</v>
+        <v>1496</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1220</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23405,16 +24979,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>1399</v>
+        <v>1497</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1400</v>
+        <v>1498</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23422,19 +24996,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1182</v>
+        <v>1280</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1401</v>
+        <v>1499</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1402</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1235</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23442,19 +25016,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1179</v>
+        <v>1277</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1403</v>
+        <v>1501</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1404</v>
+        <v>1502</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1229</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23462,19 +25036,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1405</v>
+        <v>1503</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1406</v>
+        <v>1504</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1232</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23482,19 +25056,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1170</v>
+        <v>1268</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>1407</v>
+        <v>1505</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1408</v>
+        <v>1506</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1226</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>

--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="1541">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -3768,9 +3768,108 @@
     <t xml:space="preserve">2021-04-05T13:01:11.869135209Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-13T11:22:47.432101353Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:24:22.308159183Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">R7BP</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-13T11:23:00.807246387Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:24:16.808081927Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:24:55.933445455Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:25:00.558488680Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:28:21.810721345Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:28:37.435842738Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:28:49.311108972Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:29:41.686523245Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:29:49.811611718Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:29:53.811705422Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:32:36.438456421Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:32:40.563479943Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:36:38.316034316Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:36:42.191029728Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:37:05.191350005Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:37:25.441542243Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:38:12.442162222Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:39:21.567800999Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:40:48.943816595Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:41:11.319066506Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:46:18.822259698Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:46:51.322715879Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:47:02.197811054Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:47:10.572822522Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:47:22.697890646Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:47:30.323033697Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:48:11.073470650Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:49:00.949069133Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:50:44.825555545Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:51:16.575452124Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7BS</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP_treat</t>
   </si>
   <si>
@@ -4158,7 +4257,10 @@
     <t xml:space="preserve">2021-04-10 11:03:22</t>
   </si>
   <si>
-    <t xml:space="preserve">R7BS</t>
+    <t xml:space="preserve">2021-04-13T11:19:12.054737763Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 182 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-13 11:34:33</t>
@@ -4558,7 +4660,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4585,6 +4687,11 @@
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4629,7 +4736,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4647,6 +4754,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4670,11 +4781,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4699,15 +4810,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:K701"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E669" activeCellId="0" sqref="E669"/>
+      <selection pane="bottomLeft" activeCell="D692" activeCellId="0" sqref="D692"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="31.58"/>
   </cols>
@@ -21090,398 +21201,893 @@
       <c r="G658" s="3"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B659" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C659" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E659" s="4"/>
+      <c r="A659" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B659" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C659" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E659" s="4" t="s">
+        <v>1249</v>
+      </c>
       <c r="F659" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G659" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J659" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B660" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C660" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E660" s="4"/>
+      <c r="A660" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B660" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C660" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D660" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>1252</v>
+      </c>
       <c r="F660" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G660" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J660" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B661" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C661" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E661" s="4"/>
+      <c r="A661" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B661" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C661" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D661" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>1254</v>
+      </c>
       <c r="F661" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G661" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J661" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B662" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C662" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E662" s="4"/>
+      <c r="A662" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B662" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C662" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D662" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>1256</v>
+      </c>
       <c r="F662" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G662" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J662" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B663" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C663" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E663" s="4"/>
+      <c r="A663" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B663" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C663" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D663" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E663" s="4" t="s">
+        <v>1258</v>
+      </c>
       <c r="F663" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G663" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J663" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B664" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C664" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E664" s="4"/>
+      <c r="A664" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B664" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C664" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D664" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E664" s="4" t="s">
+        <v>1260</v>
+      </c>
       <c r="F664" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G664" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J664" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B665" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C665" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E665" s="4"/>
+      <c r="A665" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B665" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C665" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D665" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>1262</v>
+      </c>
       <c r="F665" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G665" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J665" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B666" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C666" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E666" s="4"/>
+      <c r="A666" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B666" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C666" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>1264</v>
+      </c>
       <c r="F666" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G666" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J666" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B667" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C667" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E667" s="4"/>
+      <c r="A667" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B667" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C667" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D667" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>1266</v>
+      </c>
       <c r="F667" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G667" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J667" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C668" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E668" s="4"/>
+      <c r="A668" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B668" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C668" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D668" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>1268</v>
+      </c>
       <c r="F668" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G668" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J668" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B669" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C669" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E669" s="4"/>
+      <c r="A669" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B669" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C669" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D669" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>1270</v>
+      </c>
       <c r="F669" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G669" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J669" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B670" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C670" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E670" s="4"/>
+      <c r="A670" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="B670" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C670" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D670" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>1272</v>
+      </c>
       <c r="F670" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G670" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J670" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B671" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C671" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E671" s="4"/>
+      <c r="A671" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="B671" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C671" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D671" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>1274</v>
+      </c>
       <c r="F671" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G671" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J671" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B672" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C672" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E672" s="4"/>
+      <c r="A672" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="B672" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C672" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D672" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>1276</v>
+      </c>
       <c r="F672" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G672" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J672" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B673" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C673" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E673" s="4"/>
+      <c r="A673" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B673" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C673" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D673" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>1278</v>
+      </c>
       <c r="F673" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G673" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J673" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B674" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C674" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="E674" s="4"/>
+      <c r="A674" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B674" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="C674" s="5" t="n">
+        <v>166</v>
+      </c>
+      <c r="D674" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>1280</v>
+      </c>
       <c r="F674" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G674" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="J674" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C675" s="3" t="n">
-        <v>182</v>
-      </c>
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
       <c r="E675" s="4"/>
-      <c r="F675" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G675" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J675" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="F675" s="1"/>
+      <c r="G675" s="3"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C676" s="3" t="n">
-        <v>182</v>
+      <c r="B676" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C676" s="5" t="n">
+        <v>180</v>
       </c>
       <c r="E676" s="4"/>
       <c r="F676" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G676" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="J676" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B677" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C677" s="3" t="n">
-        <v>182</v>
+      <c r="B677" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C677" s="5" t="n">
+        <v>180</v>
       </c>
       <c r="E677" s="4"/>
       <c r="F677" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G677" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="J677" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B678" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C678" s="3" t="n">
-        <v>182</v>
+      <c r="B678" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C678" s="5" t="n">
+        <v>180</v>
       </c>
       <c r="E678" s="4"/>
       <c r="F678" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G678" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="J678" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B679" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C679" s="3" t="n">
-        <v>182</v>
+      <c r="B679" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C679" s="5" t="n">
+        <v>180</v>
       </c>
       <c r="E679" s="4"/>
       <c r="F679" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G679" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="J679" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B680" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C680" s="3" t="n">
-        <v>182</v>
+      <c r="B680" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C680" s="5" t="n">
+        <v>180</v>
       </c>
       <c r="E680" s="4"/>
       <c r="F680" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G680" s="3" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="J680" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B681" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C681" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E681" s="4"/>
+      <c r="F681" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J681" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B682" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C682" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E682" s="4"/>
+      <c r="F682" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J682" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C683" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E683" s="4"/>
+      <c r="F683" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J683" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B684" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C684" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E684" s="4"/>
+      <c r="F684" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J684" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B685" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C685" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E685" s="4"/>
+      <c r="F685" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J685" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B686" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C686" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E686" s="4"/>
+      <c r="F686" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J686" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C687" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E687" s="4"/>
+      <c r="F687" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J687" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C688" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E688" s="4"/>
+      <c r="F688" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J688" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C689" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E689" s="4"/>
+      <c r="F689" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J689" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C690" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E690" s="4"/>
+      <c r="F690" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J690" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B691" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C691" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E691" s="4"/>
+      <c r="F691" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J691" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C692" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E692" s="4"/>
+      <c r="F692" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J692" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C693" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E693" s="4"/>
+      <c r="F693" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J693" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C694" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E694" s="4"/>
+      <c r="F694" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J694" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C695" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E695" s="4"/>
+      <c r="F695" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J695" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C696" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E696" s="4"/>
+      <c r="F696" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J696" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B697" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C697" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E697" s="4"/>
+      <c r="F697" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J697" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B698" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C698" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E698" s="4"/>
+      <c r="F698" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J698" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B699" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C699" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E699" s="4"/>
+      <c r="F699" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J699" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B700" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C700" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E700" s="4"/>
+      <c r="F700" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J700" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B701" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C701" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E701" s="4"/>
+      <c r="F701" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J701" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21504,7 +22110,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21524,73 +22130,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1249</v>
+        <v>1282</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1250</v>
+        <v>1283</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1251</v>
+        <v>1284</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1252</v>
+        <v>1285</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1255</v>
+        <v>1288</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1256</v>
+        <v>1289</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1257</v>
+        <v>1290</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1259</v>
+        <v>1292</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1260</v>
+        <v>1293</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1261</v>
+        <v>1294</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="U1" s="5"/>
+        <v>1295</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -21599,37 +22205,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>1272</v>
+        <v>1302</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>1305</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>1272</v>
+      <c r="N2" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>1305</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -21643,7 +22249,7 @@
       <c r="S2" s="4" t="n">
         <v>44334.4881944445</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="8" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -21652,7 +22258,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -21661,37 +22267,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>1275</v>
+        <v>1302</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>1308</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>1275</v>
+      <c r="N3" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>1308</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -21705,7 +22311,7 @@
       <c r="S3" s="4" t="n">
         <v>44287.503587963</v>
       </c>
-      <c r="T3" s="7" t="n">
+      <c r="T3" s="8" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -21714,7 +22320,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -21723,37 +22329,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>1278</v>
+        <v>1302</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>1311</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>1279</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>1278</v>
+      <c r="N4" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>1311</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -21767,7 +22373,7 @@
       <c r="S4" s="4" t="n">
         <v>44341.5120717593</v>
       </c>
-      <c r="T4" s="7" t="n">
+      <c r="T4" s="8" t="n">
         <v>44792</v>
       </c>
     </row>
@@ -21776,7 +22382,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -21785,37 +22391,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>1281</v>
+        <v>1302</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>1314</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>1281</v>
+      <c r="N5" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>1314</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -21829,25 +22435,25 @@
       <c r="S5" s="4" t="n">
         <v>44307.48125</v>
       </c>
-      <c r="T5" s="7" t="n">
+      <c r="T5" s="8" t="n">
         <v>44792</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -21856,40 +22462,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>1283</v>
+        <v>1302</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1316</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>1284</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>1285</v>
+      <c r="N7" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>1318</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -21900,16 +22506,16 @@
       <c r="S7" s="4" t="n">
         <v>44258.5444907407</v>
       </c>
-      <c r="T7" s="7" t="n">
+      <c r="T7" s="8" t="n">
         <v>44802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>16</v>
@@ -21918,40 +22524,40 @@
         <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>1287</v>
+        <v>1302</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>1320</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>1287</v>
+      <c r="N8" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>1320</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>44257.5193865741</v>
@@ -21963,7 +22569,7 @@
         <v>44257.5388310185</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21971,7 +22577,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -21980,40 +22586,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>1291</v>
+        <v>1302</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>1324</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>1291</v>
+      <c r="N9" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>1324</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -22024,7 +22630,7 @@
       <c r="S9" s="4" t="n">
         <v>44256.548912037</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="T9" s="8" t="n">
         <v>44802</v>
       </c>
     </row>
@@ -22033,7 +22639,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -22042,40 +22648,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>1294</v>
+        <v>1302</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>1327</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>1295</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>1294</v>
+      <c r="N10" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>1327</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -22086,7 +22692,7 @@
       <c r="S10" s="4" t="n">
         <v>44343.4763194444</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="T10" s="8" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -22095,7 +22701,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -22104,40 +22710,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>1297</v>
+        <v>1302</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>1330</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>1298</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>1297</v>
+      <c r="N11" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>1330</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -22148,7 +22754,7 @@
       <c r="S11" s="4" t="n">
         <v>44341.4797685185</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="T11" s="8" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -22157,7 +22763,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -22166,40 +22772,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>1300</v>
+        <v>1302</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>1333</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>1300</v>
+      <c r="N12" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>1333</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>1302</v>
+        <v>1335</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -22210,7 +22816,7 @@
       <c r="S12" s="4" t="n">
         <v>44342.5156481481</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="T12" s="8" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -22219,7 +22825,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -22228,40 +22834,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L13" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>1303</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>1336</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>1304</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>1303</v>
+      <c r="N13" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>1336</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -22272,7 +22878,7 @@
       <c r="S13" s="4" t="n">
         <v>44400.4875694445</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="T13" s="8" t="n">
         <v>44812</v>
       </c>
     </row>
@@ -22281,7 +22887,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -22290,40 +22896,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>1306</v>
+        <v>1302</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>1339</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>1307</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>1306</v>
+      <c r="N14" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>1339</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1308</v>
+        <v>1341</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -22334,7 +22940,7 @@
       <c r="S14" s="4" t="n">
         <v>44399.5048726852</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="T14" s="8" t="n">
         <v>44817</v>
       </c>
     </row>
@@ -22343,7 +22949,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -22352,40 +22958,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>1309</v>
+        <v>1302</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>1342</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>1309</v>
+      <c r="N15" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>1342</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1311</v>
+        <v>1344</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -22396,7 +23002,7 @@
       <c r="S15" s="4" t="n">
         <v>44398.4913425926</v>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="T15" s="8" t="n">
         <v>44817</v>
       </c>
       <c r="U15" s="0"/>
@@ -22406,7 +23012,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -22415,40 +23021,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>1312</v>
+        <v>1302</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>1345</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>1312</v>
+      <c r="N16" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>1345</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>1314</v>
+        <v>1347</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -22459,11 +23065,11 @@
       <c r="S16" s="4" t="n">
         <v>44404.4818055556</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="T16" s="8" t="n">
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1315</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22471,7 +23077,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -22480,40 +23086,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>1316</v>
+        <v>1302</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>1316</v>
+      <c r="N17" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -22524,7 +23130,7 @@
       <c r="S17" s="4" t="n">
         <v>44405.4751157407</v>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="T17" s="8" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -22533,7 +23139,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -22542,40 +23148,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>1319</v>
+        <v>1302</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>1352</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>1320</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>1319</v>
+      <c r="N18" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>1352</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>1321</v>
+        <v>1354</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -22586,7 +23192,7 @@
       <c r="S18" s="4" t="n">
         <v>44404.4858912037</v>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="T18" s="8" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -22595,7 +23201,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -22604,40 +23210,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>1322</v>
+        <v>1302</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>1355</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>1322</v>
+      <c r="N19" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>1355</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -22648,7 +23254,7 @@
       <c r="S19" s="4" t="n">
         <v>44412.4603819444</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="T19" s="8" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -22657,7 +23263,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -22666,40 +23272,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>1325</v>
+        <v>1302</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>1358</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>1326</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>1325</v>
+      <c r="N20" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>1358</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1327</v>
+        <v>1360</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -22710,7 +23316,7 @@
       <c r="S20" s="4" t="n">
         <v>44411.4709722222</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="T20" s="8" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -22719,7 +23325,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -22728,40 +23334,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>1328</v>
+        <v>1302</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>1361</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>1329</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>1328</v>
+      <c r="N21" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>1361</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1330</v>
+        <v>1363</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -22772,7 +23378,7 @@
       <c r="S21" s="4" t="n">
         <v>44412.4629398148</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="T21" s="8" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -22781,7 +23387,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -22790,40 +23396,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>1331</v>
+        <v>1302</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>1364</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>1332</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>1331</v>
+      <c r="N22" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>1364</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -22834,7 +23440,7 @@
       <c r="S22" s="4" t="n">
         <v>44411.4741782407</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="T22" s="8" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -22843,7 +23449,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -22852,51 +23458,51 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>1334</v>
+        <v>1302</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>1367</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>1335</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>1334</v>
+      <c r="N23" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>1367</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="Q23" s="9" t="n">
+        <v>1369</v>
+      </c>
+      <c r="Q23" s="10" t="n">
         <v>44264.5567013889</v>
       </c>
-      <c r="R23" s="9" t="n">
+      <c r="R23" s="10" t="n">
         <v>44264.5671180556</v>
       </c>
-      <c r="S23" s="9" t="n">
+      <c r="S23" s="10" t="n">
         <v>44264.5775347222</v>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="T23" s="8" t="n">
         <v>44828</v>
       </c>
     </row>
@@ -22905,7 +23511,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -22914,55 +23520,55 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>1337</v>
+        <v>1302</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>1370</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>1337</v>
+      <c r="N24" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>1370</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="Q24" s="10" t="n">
+        <v>1372</v>
+      </c>
+      <c r="Q24" s="4" t="n">
         <v>44263.5583912037</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="4" t="n">
         <v>44263.5688078704</v>
       </c>
-      <c r="S24" s="10" t="n">
+      <c r="S24" s="4" t="n">
         <v>44263.579224537</v>
       </c>
-      <c r="T24" s="7" t="n">
+      <c r="T24" s="8" t="n">
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1340</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22970,7 +23576,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -22979,51 +23585,51 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>1341</v>
+        <v>1302</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>1374</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>1341</v>
+      <c r="N25" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>1374</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="Q25" s="10" t="n">
+        <v>1376</v>
+      </c>
+      <c r="Q25" s="4" t="n">
         <v>44264.5606134259</v>
       </c>
-      <c r="R25" s="10" t="n">
+      <c r="R25" s="4" t="n">
         <v>44264.5710300926</v>
       </c>
-      <c r="S25" s="10" t="n">
+      <c r="S25" s="4" t="n">
         <v>44264.5814467593</v>
       </c>
-      <c r="T25" s="7" t="n">
+      <c r="T25" s="8" t="n">
         <v>44832</v>
       </c>
       <c r="U25" s="0"/>
@@ -23033,7 +23639,7 @@
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -23042,51 +23648,51 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>1344</v>
+        <v>1302</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>1377</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>1344</v>
+      <c r="N26" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>1377</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="Q26" s="10" t="n">
+        <v>1379</v>
+      </c>
+      <c r="Q26" s="4" t="n">
         <v>44263.5318055556</v>
       </c>
-      <c r="R26" s="10" t="n">
+      <c r="R26" s="4" t="n">
         <v>44263.5422222222</v>
       </c>
-      <c r="S26" s="10" t="n">
+      <c r="S26" s="4" t="n">
         <v>44263.5526388889</v>
       </c>
-      <c r="T26" s="7" t="n">
+      <c r="T26" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23095,7 +23701,7 @@
         <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>76</v>
@@ -23104,55 +23710,55 @@
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>1347</v>
+        <v>1302</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>1380</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>1347</v>
+      <c r="N27" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>1380</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q27" s="10" t="n">
+        <v>1382</v>
+      </c>
+      <c r="Q27" s="4" t="n">
         <v>44271.506087963</v>
       </c>
-      <c r="R27" s="10" t="n">
+      <c r="R27" s="4" t="n">
         <v>44271.5165046296</v>
       </c>
-      <c r="S27" s="10" t="n">
+      <c r="S27" s="4" t="n">
         <v>44271.5269212963</v>
       </c>
-      <c r="T27" s="7" t="n">
+      <c r="T27" s="8" t="n">
         <v>44832</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1350</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23160,7 +23766,7 @@
         <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -23169,51 +23775,51 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>1351</v>
+        <v>1302</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>1384</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>1351</v>
+      <c r="N28" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>1384</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q28" s="10" t="n">
+        <v>1386</v>
+      </c>
+      <c r="Q28" s="4" t="n">
         <v>44270.5090162037</v>
       </c>
-      <c r="R28" s="10" t="n">
+      <c r="R28" s="4" t="n">
         <v>44270.5194328704</v>
       </c>
-      <c r="S28" s="10" t="n">
+      <c r="S28" s="4" t="n">
         <v>44270.529849537</v>
       </c>
-      <c r="T28" s="7" t="n">
+      <c r="T28" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23222,7 +23828,7 @@
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -23231,51 +23837,51 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>1354</v>
+        <v>1302</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>1387</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>1354</v>
+      <c r="N29" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>1387</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Q29" s="10" t="n">
+        <v>1389</v>
+      </c>
+      <c r="Q29" s="4" t="n">
         <v>44270.5151157407</v>
       </c>
-      <c r="R29" s="10" t="n">
+      <c r="R29" s="4" t="n">
         <v>44270.5255324074</v>
       </c>
-      <c r="S29" s="10" t="n">
+      <c r="S29" s="4" t="n">
         <v>44270.5359490741</v>
       </c>
-      <c r="T29" s="7" t="n">
+      <c r="T29" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23284,7 +23890,7 @@
         <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -23293,51 +23899,51 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>1357</v>
+        <v>1302</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>1390</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>1357</v>
+      <c r="N30" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>1390</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="Q30" s="10" t="n">
+        <v>1392</v>
+      </c>
+      <c r="Q30" s="4" t="n">
         <v>44278.5690740741</v>
       </c>
-      <c r="R30" s="10" t="n">
+      <c r="R30" s="4" t="n">
         <v>44278.5794907407</v>
       </c>
-      <c r="S30" s="10" t="n">
+      <c r="S30" s="4" t="n">
         <v>44278.5899074074</v>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="T30" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23346,7 +23952,7 @@
         <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -23355,40 +23961,40 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>1360</v>
+        <v>1302</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>1393</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>1361</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>1360</v>
+      <c r="N31" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>1393</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>1362</v>
+        <v>1395</v>
       </c>
       <c r="Q31" s="11" t="n">
         <v>44277.5395717593</v>
@@ -23399,7 +24005,7 @@
       <c r="S31" s="11" t="n">
         <v>44277.5604050926</v>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="T31" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23408,7 +24014,7 @@
         <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -23417,51 +24023,51 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>1363</v>
+        <v>1302</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>1396</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>1364</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>1363</v>
+      <c r="N32" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>1396</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="Q32" s="10" t="n">
+        <v>1398</v>
+      </c>
+      <c r="Q32" s="4" t="n">
         <v>44285.4767476852</v>
       </c>
-      <c r="R32" s="10" t="n">
+      <c r="R32" s="4" t="n">
         <v>44285.4871643519</v>
       </c>
-      <c r="S32" s="10" t="n">
+      <c r="S32" s="4" t="n">
         <v>44285.4975810185</v>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="T32" s="8" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -23470,7 +24076,7 @@
         <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>16</v>
@@ -23479,40 +24085,40 @@
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>1366</v>
+        <v>1302</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>1399</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>1367</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>1366</v>
+      <c r="N33" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>1399</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>1368</v>
+        <v>1401</v>
       </c>
       <c r="Q33" s="11" t="n">
         <v>44284.5104050926</v>
@@ -23523,11 +24129,11 @@
       <c r="S33" s="11" t="n">
         <v>44284.5312384259</v>
       </c>
-      <c r="T33" s="7" t="n">
+      <c r="T33" s="8" t="n">
         <v>44832</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1369</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23535,7 +24141,7 @@
         <v>1152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -23544,51 +24150,51 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>1370</v>
+        <v>1302</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>1403</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>1370</v>
+      <c r="N34" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>1403</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Q34" s="10" t="n">
+        <v>1405</v>
+      </c>
+      <c r="Q34" s="4" t="n">
         <v>44292.4588194444</v>
       </c>
-      <c r="R34" s="10" t="n">
+      <c r="R34" s="4" t="n">
         <v>44292.4692361111</v>
       </c>
-      <c r="S34" s="10" t="n">
+      <c r="S34" s="4" t="n">
         <v>44292.4796527778</v>
       </c>
-      <c r="T34" s="7" t="n">
+      <c r="T34" s="8" t="n">
         <v>44833</v>
       </c>
     </row>
@@ -23597,7 +24203,7 @@
         <v>1193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -23606,107 +24212,122 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>1373</v>
+        <v>1302</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>1406</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>1374</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>1373</v>
+      <c r="N35" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>1406</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Q35" s="10" t="n">
+        <v>1408</v>
+      </c>
+      <c r="Q35" s="4" t="n">
         <v>44291.5216666667</v>
       </c>
-      <c r="R35" s="10" t="n">
+      <c r="R35" s="4" t="n">
         <v>44291.5320833333</v>
       </c>
-      <c r="S35" s="10" t="n">
+      <c r="S35" s="4" t="n">
         <v>44291.5425</v>
       </c>
-      <c r="T35" s="7" t="n">
+      <c r="T35" s="8" t="n">
         <v>44833</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>1376</v>
+        <v>1302</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>1409</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>1377</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>1376</v>
+      <c r="N36" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q36" s="12" t="n">
+        <v>44299.4730555556</v>
+      </c>
+      <c r="R36" s="12" t="n">
+        <v>44299.4834722222</v>
+      </c>
+      <c r="S36" s="12" t="n">
+        <v>44299.4938888889</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1378</v>
+        <v>1281</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -23715,45 +24336,45 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>1379</v>
+        <v>1302</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>1413</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>1380</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>1379</v>
+      <c r="N37" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -23762,45 +24383,45 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>1382</v>
+        <v>1302</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>1416</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>1383</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>1382</v>
+      <c r="N38" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1384</v>
+        <v>1418</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -23809,45 +24430,45 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>1385</v>
+        <v>1302</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>1419</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>1386</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>1385</v>
+      <c r="N39" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1387</v>
+        <v>1421</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>126</v>
@@ -23856,45 +24477,45 @@
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>1388</v>
+        <v>1302</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>1422</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>1389</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>1388</v>
+      <c r="N40" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1390</v>
+        <v>1424</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -23903,45 +24524,45 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>1391</v>
+        <v>1302</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>1425</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>1392</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>1391</v>
+      <c r="N41" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1393</v>
+        <v>1427</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -23950,37 +24571,37 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>1394</v>
+        <v>1302</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>1428</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>1395</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>1394</v>
+      <c r="N42" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>1428</v>
       </c>
     </row>
   </sheetData>
@@ -24002,10 +24623,10 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -24017,19 +24638,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1396</v>
+        <v>1430</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1397</v>
+        <v>1431</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1398</v>
+        <v>1432</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1249</v>
+        <v>1282</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1399</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24037,19 +24658,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1400</v>
+        <v>1313</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1434</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1401</v>
+        <v>1435</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24057,19 +24678,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1403</v>
+        <v>1310</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1437</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1404</v>
+        <v>1438</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24077,19 +24698,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1405</v>
+        <v>1307</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1439</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1406</v>
+        <v>1440</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24097,16 +24718,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1407</v>
+        <v>1301</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1408</v>
+        <v>1442</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24114,19 +24735,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1409</v>
+        <v>1313</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1443</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1410</v>
+        <v>1444</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1346</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24134,19 +24755,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1411</v>
+        <v>1310</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1445</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1412</v>
+        <v>1446</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1339</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24154,19 +24775,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1413</v>
+        <v>1307</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1447</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1414</v>
+        <v>1448</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1343</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24174,19 +24795,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1413</v>
+        <v>1301</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1447</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1415</v>
+        <v>1449</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1336</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24194,19 +24815,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1405</v>
+        <v>1313</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1439</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1416</v>
+        <v>1450</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1356</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24214,19 +24835,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1417</v>
+        <v>1310</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1451</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1418</v>
+        <v>1452</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1353</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24234,16 +24855,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1419</v>
+        <v>1307</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1453</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1420</v>
+        <v>1454</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24251,19 +24872,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>1421</v>
+        <v>1301</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1455</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1422</v>
+        <v>1456</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1349</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24271,19 +24892,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1423</v>
+        <v>1313</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1457</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1424</v>
+        <v>1458</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1362</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24291,16 +24912,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1425</v>
+        <v>1310</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1459</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24308,16 +24929,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1427</v>
+        <v>1307</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1461</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1428</v>
+        <v>1462</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24325,19 +24946,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1429</v>
+        <v>1301</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1463</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1430</v>
+        <v>1464</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1359</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24345,19 +24966,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1417</v>
+        <v>1313</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1451</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1431</v>
+        <v>1465</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1368</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24365,16 +24986,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>1433</v>
+        <v>1310</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1467</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1434</v>
+        <v>1468</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24382,16 +25003,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1435</v>
+        <v>1307</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1469</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1436</v>
+        <v>1470</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24399,19 +25020,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1437</v>
+        <v>1301</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1471</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1438</v>
+        <v>1472</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1365</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24419,19 +25040,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1439</v>
+        <v>1313</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1473</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1440</v>
+        <v>1474</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1375</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24439,16 +25060,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>1441</v>
+        <v>1310</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1475</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1442</v>
+        <v>1476</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24456,19 +25077,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>1443</v>
+        <v>1307</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1477</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1444</v>
+        <v>1478</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1372</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24476,16 +25097,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>1445</v>
+        <v>1301</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1479</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1446</v>
+        <v>1480</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24493,16 +25114,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>1447</v>
+        <v>1313</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1481</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1448</v>
+        <v>1482</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24510,16 +25131,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>1449</v>
+        <v>1310</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1483</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1450</v>
+        <v>1484</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24527,16 +25148,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>1451</v>
+        <v>1307</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1485</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1452</v>
+        <v>1486</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24544,16 +25165,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>1447</v>
+        <v>1301</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1481</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1453</v>
+        <v>1487</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24561,16 +25185,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>1454</v>
+        <v>1313</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>1488</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1455</v>
+        <v>1489</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24578,16 +25202,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>1456</v>
+        <v>1310</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1457</v>
+        <v>1491</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24595,16 +25219,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>1458</v>
+        <v>1307</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1492</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1459</v>
+        <v>1493</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24612,16 +25236,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>1460</v>
+        <v>1301</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>1494</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1461</v>
+        <v>1495</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24629,16 +25253,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>1460</v>
+        <v>1313</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1494</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1462</v>
+        <v>1496</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24646,16 +25270,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>1463</v>
+        <v>1310</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1497</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24663,16 +25287,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>1465</v>
+        <v>1307</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>1499</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24680,16 +25304,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>1467</v>
+        <v>1301</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>1501</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1468</v>
+        <v>1502</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24697,16 +25321,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>1469</v>
+        <v>1313</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>1503</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1470</v>
+        <v>1504</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24714,16 +25338,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>1460</v>
+        <v>1310</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>1494</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1471</v>
+        <v>1505</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24731,16 +25355,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>1472</v>
+        <v>1307</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>1506</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1473</v>
+        <v>1507</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24748,16 +25372,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>1474</v>
+        <v>1301</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>1508</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1475</v>
+        <v>1509</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24765,19 +25389,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>1476</v>
+        <v>1313</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>1510</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1477</v>
+        <v>1511</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1302</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24785,16 +25409,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>1478</v>
+        <v>1310</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>1512</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24802,19 +25426,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>1443</v>
+        <v>1307</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>1477</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1480</v>
+        <v>1514</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24822,19 +25446,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>1481</v>
+        <v>1301</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>1515</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1482</v>
+        <v>1516</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24842,16 +25466,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>1483</v>
+        <v>1313</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1517</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1484</v>
+        <v>1518</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24859,19 +25483,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>1485</v>
+        <v>1310</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>1519</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1486</v>
+        <v>1520</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1308</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24879,19 +25503,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>1487</v>
+        <v>1307</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>1521</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1488</v>
+        <v>1522</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1311</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24899,19 +25523,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>1489</v>
+        <v>1301</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>1523</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1490</v>
+        <v>1524</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24919,19 +25543,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>1491</v>
+        <v>1313</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>1525</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1492</v>
+        <v>1526</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1321</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24939,19 +25563,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>1493</v>
+        <v>1310</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>1527</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1314</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24959,19 +25583,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>1495</v>
+        <v>1307</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>1529</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1496</v>
+        <v>1530</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1318</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24979,16 +25603,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>1497</v>
+        <v>1301</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>1531</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1498</v>
+        <v>1532</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24996,19 +25620,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>1499</v>
+        <v>1313</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>1533</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1500</v>
+        <v>1534</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1333</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25016,19 +25640,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>1501</v>
+        <v>1310</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1535</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1502</v>
+        <v>1536</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1327</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25036,19 +25660,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>1503</v>
+        <v>1307</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>1537</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1504</v>
+        <v>1538</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1330</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25056,19 +25680,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>1505</v>
+        <v>1301</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1539</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1506</v>
+        <v>1540</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>

--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="1741">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -3867,9 +3867,606 @@
     <t xml:space="preserve">2021-04-13T11:51:16.575452124Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-12T11:15:43.350310179Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:15:45.225311323Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">R7BS</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-12T11:15:48.725353096Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:16:15.850506588Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:15:59.225405429Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:16:34.100616555Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:16:26.975551753Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:19:36.976721949Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:18:27.726305973Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:18:41.351456601Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:18:31.226353094Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:22.726982611Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:27.476954917Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:30.977043154Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:39.102101410Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:37.352109210Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:20.352363581Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:48.102154726Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:52.977194423Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:13.227301854Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:24.477371434Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:31.352422021Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:34.852390909Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:45.852508479Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:03.977612317Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:07.352624203Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:10.727597476Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:30.352790096Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:53.477918914Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:39.727815811Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:00.852956406Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:38.977806506Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:14.853040689Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:59.602956677Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:01.353003104Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:53.228288244Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:06.728335557Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:01.478329531Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:13.978408533Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:03.728361339Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:04.728336956Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:02.603390234Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:25.604155620Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:06.353355203Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:11.603419585Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:32.853526281Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:40.103593955Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:55.353655318Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:07.978746644Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:17.853790046Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:49.978985980Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:24.103815120Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:47.603982167Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:44.103960009Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:00.229070909Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:02.479055917Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:05.479034485Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:12.604129134Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:33.229616819Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:55.854402572Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:13.854859775Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:43.354676692Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:48.104700893Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:52.104736949Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:58.354760787Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:18.979885949Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:20.604900003Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:36.230352144Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:57.605518004Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:39.230389349Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:42.105427081Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:48.480362266Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:55.230455332Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:53.355443964Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:07.355544789Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:52.106130496Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:53.980921677Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:40:18.109623818Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:46:29.986997051Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:41:01.859809765Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:41:25.610001297Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:41:29.860028822Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:41:32.485117396Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:25:13.757837324Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:25:32.257948813Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:25:14.757857483Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:25:28.257963887Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:26:02.258279112Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:26:05.008310479Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:26:34.258587444Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:26:52.008755297Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:27:16.758999827Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:27:18.259012860Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:28:25.884592418Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:28:47.634800394Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:31:57.511544416Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:32:07.636575637Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:35:47.763654558Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:36:09.888841420Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:38:17.640061831Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:38:36.890200286Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:51:32.147723627Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:51:51.772502288Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:20.806227571Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:39.806433412Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:56.306551219Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:05.306689514Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:20:57.181547018Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:49.682171819Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:44.182111527Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:30.557589700Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:48.182147656Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:58.932266600Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:56.182236352Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:59.057250969Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:21:59.682218913Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:02.432286761Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:07.307282735Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:36.182607276Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:30.182586336Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:22:54.807829832Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:36.183296939Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:13.058031559Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:25.558162402Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:47.933442045Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:44.558302397Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:48.308412725Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:51.683451574Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:57.058511279Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:54.433498341Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:23:55.808477792Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:07.808608578Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:16.183672719Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:11.183663462Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:42.684043370Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:20.183799390Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:30.183853916Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:33.558875546Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:24:49.059049398Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:08.184243907Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:08.934255241Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:25:51.809713879Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:02.934818435Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:28.185150824Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:03.684812305Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:26:34.685167739Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:00.310402693Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:10.185537390Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:04.185399825Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:04.811101605Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:16.310603686Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:20.935679578Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:36.185734367Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:27:42.060873968Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:02.811089115Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:58.311660249Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:00.186086901Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:08.061135009Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:42.436505095Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:28:51.686533659Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:07.186769012Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:38.437087601Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:29:48.187168116Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:14.437450128Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:22.687551710Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:30:36.187686849Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:31:25.188194240Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:32:47.189009712Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:31:37.813326059Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:33:02.689171858Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:07.439987187Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:33:09.689318484Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:33:54.814780992Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:04.940157873Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:18.190454118Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:23.440168636Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:36.690202342Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:46.565300118Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:38.440315434Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:34:59.440546712Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:01.815464545Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:00.065537401Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:01.940477880Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:24.940798922Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:25.815722351Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:35:41.315882336Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:36:17.566263351Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:36:26.566393141Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:36:48.316599555Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:36:39.691508341Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:36:47.691656979Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:37:09.191750314Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:37:14.566834832Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:38:11.817441275Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:38:14.192491873Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:38:20.693035350Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:38:47.067877228Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP_treat</t>
   </si>
   <si>
@@ -4269,7 +4866,7 @@
     <t xml:space="preserve">2021-04-09 10:31:18</t>
   </si>
   <si>
-    <t xml:space="preserve">R7SP</t>
+    <t xml:space="preserve">2021-04-12T11:13:42.974555355Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-14 11:34:14</t>
@@ -4278,13 +4875,16 @@
     <t xml:space="preserve">2021-04-10 11:53:10</t>
   </si>
   <si>
-    <t xml:space="preserve">R7SS</t>
+    <t xml:space="preserve">2021-04-13T11:23:13.131731957Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-13 11:36:03</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-09 10:37:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:18:03.554728772Z</t>
   </si>
   <si>
     <t xml:space="preserve">R8BP</t>
@@ -4651,16 +5251,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="170" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4687,11 +5288,6 @@
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4757,7 +5353,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4765,15 +5361,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4785,11 +5381,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4810,15 +5406,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K701"/>
+  <dimension ref="A1:K791"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D692" activeCellId="0" sqref="D692"/>
+      <selection pane="bottomLeft" activeCell="A782" activeCellId="0" sqref="A782"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="31.58"/>
   </cols>
@@ -21204,10 +21800,10 @@
       <c r="A659" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B659" s="5" t="n">
+      <c r="B659" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C659" s="5" t="n">
+      <c r="C659" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D659" s="0" t="s">
@@ -21230,10 +21826,10 @@
       <c r="A660" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B660" s="5" t="n">
+      <c r="B660" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C660" s="5" t="n">
+      <c r="C660" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D660" s="0" t="s">
@@ -21256,10 +21852,10 @@
       <c r="A661" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B661" s="5" t="n">
+      <c r="B661" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C661" s="5" t="n">
+      <c r="C661" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D661" s="0" t="s">
@@ -21282,10 +21878,10 @@
       <c r="A662" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B662" s="5" t="n">
+      <c r="B662" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C662" s="5" t="n">
+      <c r="C662" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D662" s="0" t="s">
@@ -21308,10 +21904,10 @@
       <c r="A663" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B663" s="5" t="n">
+      <c r="B663" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C663" s="5" t="n">
+      <c r="C663" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D663" s="0" t="s">
@@ -21334,10 +21930,10 @@
       <c r="A664" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B664" s="5" t="n">
+      <c r="B664" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C664" s="5" t="n">
+      <c r="C664" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D664" s="0" t="s">
@@ -21360,10 +21956,10 @@
       <c r="A665" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B665" s="5" t="n">
+      <c r="B665" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C665" s="5" t="n">
+      <c r="C665" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D665" s="0" t="s">
@@ -21386,10 +21982,10 @@
       <c r="A666" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="B666" s="5" t="n">
+      <c r="B666" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C666" s="5" t="n">
+      <c r="C666" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D666" s="0" t="s">
@@ -21412,10 +22008,10 @@
       <c r="A667" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B667" s="5" t="n">
+      <c r="B667" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C667" s="5" t="n">
+      <c r="C667" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D667" s="0" t="s">
@@ -21438,10 +22034,10 @@
       <c r="A668" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B668" s="5" t="n">
+      <c r="B668" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C668" s="5" t="n">
+      <c r="C668" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D668" s="0" t="s">
@@ -21464,10 +22060,10 @@
       <c r="A669" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B669" s="5" t="n">
+      <c r="B669" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C669" s="5" t="n">
+      <c r="C669" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D669" s="0" t="s">
@@ -21490,10 +22086,10 @@
       <c r="A670" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B670" s="5" t="n">
+      <c r="B670" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C670" s="5" t="n">
+      <c r="C670" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D670" s="0" t="s">
@@ -21516,10 +22112,10 @@
       <c r="A671" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B671" s="5" t="n">
+      <c r="B671" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C671" s="5" t="n">
+      <c r="C671" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D671" s="0" t="s">
@@ -21542,10 +22138,10 @@
       <c r="A672" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B672" s="5" t="n">
+      <c r="B672" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C672" s="5" t="n">
+      <c r="C672" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D672" s="0" t="s">
@@ -21568,10 +22164,10 @@
       <c r="A673" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="B673" s="5" t="n">
+      <c r="B673" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C673" s="5" t="n">
+      <c r="C673" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D673" s="0" t="s">
@@ -21594,10 +22190,10 @@
       <c r="A674" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="B674" s="5" t="n">
+      <c r="B674" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C674" s="5" t="n">
+      <c r="C674" s="3" t="n">
         <v>166</v>
       </c>
       <c r="D674" s="0" t="s">
@@ -21617,478 +22213,2838 @@
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="5"/>
-      <c r="C675" s="5"/>
+      <c r="B675" s="3"/>
+      <c r="C675" s="3"/>
       <c r="E675" s="4"/>
       <c r="F675" s="1"/>
       <c r="G675" s="3"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="5" t="n">
+      <c r="A676" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B676" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C676" s="5" t="n">
+      <c r="C676" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E676" s="4"/>
+      <c r="D676" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>1282</v>
+      </c>
       <c r="F676" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G676" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J676" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B677" s="5" t="n">
+      <c r="A677" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B677" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C677" s="5" t="n">
+      <c r="C677" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E677" s="4"/>
+      <c r="D677" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>1285</v>
+      </c>
       <c r="F677" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G677" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J677" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B678" s="5" t="n">
+      <c r="A678" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B678" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C678" s="5" t="n">
+      <c r="C678" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E678" s="4"/>
+      <c r="D678" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>1287</v>
+      </c>
       <c r="F678" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G678" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J678" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B679" s="5" t="n">
+      <c r="A679" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B679" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C679" s="5" t="n">
+      <c r="C679" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E679" s="4"/>
+      <c r="D679" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>1289</v>
+      </c>
       <c r="F679" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G679" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J679" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B680" s="5" t="n">
+      <c r="A680" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B680" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C680" s="5" t="n">
+      <c r="C680" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E680" s="4"/>
+      <c r="D680" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>1291</v>
+      </c>
       <c r="F680" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G680" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J680" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B681" s="5" t="n">
+      <c r="A681" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B681" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C681" s="5" t="n">
+      <c r="C681" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E681" s="4"/>
+      <c r="D681" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>1292</v>
+      </c>
       <c r="F681" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G681" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J681" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B682" s="5" t="n">
+      <c r="A682" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B682" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C682" s="5" t="n">
+      <c r="C682" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E682" s="4"/>
+      <c r="D682" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>1294</v>
+      </c>
       <c r="F682" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G682" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J682" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B683" s="5" t="n">
+      <c r="A683" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B683" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C683" s="5" t="n">
+      <c r="C683" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E683" s="4"/>
+      <c r="D683" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>1296</v>
+      </c>
       <c r="F683" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G683" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J683" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B684" s="5" t="n">
+      <c r="A684" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B684" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C684" s="5" t="n">
+      <c r="C684" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E684" s="4"/>
+      <c r="D684" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>1298</v>
+      </c>
       <c r="F684" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G684" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J684" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B685" s="5" t="n">
+      <c r="A685" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B685" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C685" s="5" t="n">
+      <c r="C685" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E685" s="4"/>
+      <c r="D685" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>1300</v>
+      </c>
       <c r="F685" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G685" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J685" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B686" s="5" t="n">
+      <c r="A686" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B686" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C686" s="5" t="n">
+      <c r="C686" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E686" s="4"/>
+      <c r="D686" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>1302</v>
+      </c>
       <c r="F686" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G686" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J686" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B687" s="5" t="n">
+      <c r="A687" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="B687" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C687" s="5" t="n">
+      <c r="C687" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E687" s="4"/>
+      <c r="D687" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>1304</v>
+      </c>
       <c r="F687" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G687" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J687" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B688" s="5" t="n">
+      <c r="A688" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B688" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C688" s="5" t="n">
+      <c r="C688" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E688" s="4"/>
+      <c r="D688" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E688" s="4" t="s">
+        <v>1305</v>
+      </c>
       <c r="F688" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G688" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J688" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B689" s="5" t="n">
+      <c r="A689" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B689" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C689" s="5" t="n">
+      <c r="C689" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E689" s="4"/>
+      <c r="D689" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E689" s="4" t="s">
+        <v>1307</v>
+      </c>
       <c r="F689" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G689" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J689" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B690" s="5" t="n">
+      <c r="A690" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B690" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C690" s="5" t="n">
+      <c r="C690" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E690" s="4"/>
+      <c r="D690" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E690" s="4" t="s">
+        <v>1309</v>
+      </c>
       <c r="F690" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G690" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J690" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B691" s="5" t="n">
+      <c r="A691" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="B691" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C691" s="5" t="n">
+      <c r="C691" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E691" s="4"/>
+      <c r="D691" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E691" s="4" t="s">
+        <v>1310</v>
+      </c>
       <c r="F691" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G691" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J691" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="5" t="n">
+      <c r="A692" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B692" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C692" s="5" t="n">
+      <c r="C692" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E692" s="4"/>
+      <c r="D692" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E692" s="4" t="s">
+        <v>1312</v>
+      </c>
       <c r="F692" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G692" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J692" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="5" t="n">
+      <c r="A693" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B693" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C693" s="5" t="n">
+      <c r="C693" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E693" s="4"/>
+      <c r="D693" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E693" s="4" t="s">
+        <v>1314</v>
+      </c>
       <c r="F693" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G693" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J693" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="5" t="n">
+      <c r="A694" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B694" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C694" s="5" t="n">
+      <c r="C694" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E694" s="4"/>
+      <c r="D694" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E694" s="4" t="s">
+        <v>1316</v>
+      </c>
       <c r="F694" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G694" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J694" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="5" t="n">
+      <c r="A695" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B695" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C695" s="5" t="n">
+      <c r="C695" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E695" s="4"/>
+      <c r="D695" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E695" s="4" t="s">
+        <v>1318</v>
+      </c>
       <c r="F695" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G695" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J695" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="5" t="n">
+      <c r="A696" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B696" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C696" s="5" t="n">
+      <c r="C696" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E696" s="4"/>
+      <c r="D696" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E696" s="4" t="s">
+        <v>1320</v>
+      </c>
       <c r="F696" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G696" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J696" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="5" t="n">
+      <c r="A697" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B697" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C697" s="5" t="n">
+      <c r="C697" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E697" s="4"/>
+      <c r="D697" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E697" s="4" t="s">
+        <v>1322</v>
+      </c>
       <c r="F697" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G697" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J697" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="5" t="n">
+      <c r="A698" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B698" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C698" s="5" t="n">
+      <c r="C698" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E698" s="4"/>
+      <c r="D698" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E698" s="4" t="s">
+        <v>1324</v>
+      </c>
       <c r="F698" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G698" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J698" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="5" t="n">
+      <c r="A699" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B699" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C699" s="5" t="n">
+      <c r="C699" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E699" s="4"/>
+      <c r="D699" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E699" s="4" t="s">
+        <v>1326</v>
+      </c>
       <c r="F699" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G699" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J699" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="5" t="n">
+      <c r="A700" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B700" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C700" s="5" t="n">
+      <c r="C700" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E700" s="4"/>
+      <c r="D700" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E700" s="4" t="s">
+        <v>1328</v>
+      </c>
       <c r="F700" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G700" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J700" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="5" t="n">
+      <c r="A701" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B701" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C701" s="5" t="n">
+      <c r="C701" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="E701" s="4"/>
+      <c r="D701" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E701" s="0" t="s">
+        <v>1330</v>
+      </c>
       <c r="F701" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G701" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="J701" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B702" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C702" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D702" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E702" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J702" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B703" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C703" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D703" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E703" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J703" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B704" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C704" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D704" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E704" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J704" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B705" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C705" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D705" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E705" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J705" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B706" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C706" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D706" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E706" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J706" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B707" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C707" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D707" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E707" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J707" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B708" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C708" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D708" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E708" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J708" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B709" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C709" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D709" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E709" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J709" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B710" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C710" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D710" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E710" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J710" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B711" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C711" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D711" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E711" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J711" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B712" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C712" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D712" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E712" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J712" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B713" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C713" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D713" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E713" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J713" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="B714" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C714" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D714" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E714" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J714" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B715" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C715" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D715" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E715" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J715" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B716" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C716" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D716" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E716" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J716" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B717" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C717" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D717" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E717" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J717" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B718" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C718" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D718" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E718" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J718" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B721" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C721" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E721" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J721" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B722" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C722" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E722" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J722" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B723" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C723" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E723" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J723" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B724" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C724" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E724" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J724" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B725" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C725" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E725" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J725" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B726" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C726" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E726" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J726" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B727" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C727" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E727" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J727" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B728" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C728" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E728" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J728" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B729" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C729" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E729" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J729" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B730" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C730" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E730" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J730" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D731" s="4"/>
+      <c r="E731" s="4"/>
+      <c r="F731" s="1"/>
+      <c r="G731" s="3"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B732" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C732" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E732" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J732" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B733" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C733" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E733" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J733" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B734" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C734" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E734" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J734" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B735" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C735" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E735" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J735" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B736" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C736" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E736" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J736" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B737" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C737" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E737" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J737" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B738" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C738" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E738" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J738" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B739" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C739" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E739" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J739" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B740" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C740" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E740" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J740" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B741" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C741" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E741" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J741" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B742" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C742" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E742" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J742" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B743" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C743" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E743" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J743" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B744" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C744" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E744" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J744" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B745" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C745" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E745" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J745" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B746" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C746" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E746" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J746" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B747" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C747" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E747" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J747" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B748" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C748" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E748" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J748" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B749" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C749" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D749" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E749" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J749" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B750" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C750" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D750" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E750" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J750" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B751" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C751" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D751" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E751" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J751" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B752" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C752" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D752" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E752" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J752" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B753" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C753" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D753" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E753" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J753" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B754" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C754" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D754" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E754" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J754" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B755" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C755" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D755" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E755" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J755" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B756" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C756" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E756" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J756" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B757" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C757" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J757" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B758" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C758" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D758" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E758" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J758" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B759" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C759" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D759" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E759" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J759" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B760" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C760" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D760" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E760" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J760" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B761" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C761" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D761" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E761" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J761" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B762" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C762" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D762" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E762" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J762" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B763" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C763" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D763" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E763" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J763" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B764" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C764" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D764" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E764" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J764" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B765" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C765" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E765" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J765" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B766" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C766" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E766" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J766" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B767" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C767" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D767" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E767" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J767" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B768" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C768" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D768" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E768" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J768" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B769" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C769" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D769" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E769" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J769" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B770" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C770" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D770" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E770" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J770" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B771" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C771" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D771" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E771" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J771" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B772" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C772" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D772" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E772" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J772" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B773" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C773" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D773" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E773" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J773" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B774" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C774" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D774" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E774" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J774" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B775" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C775" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D775" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E775" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J775" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B776" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C776" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D776" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E776" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J776" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B777" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C777" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D777" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E777" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J777" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B778" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C778" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D778" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E778" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J778" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B779" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C779" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D779" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E779" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J779" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B780" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C780" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D780" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E780" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J780" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B781" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C781" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D781" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E781" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J781" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C782" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G782" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J782" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C783" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G783" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J783" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C784" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G784" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J784" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C785" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J785" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C786" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J786" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C787" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J787" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C788" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J788" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B789" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C789" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J789" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D791" s="5" t="n">
+        <v>44298.4826736111</v>
+      </c>
+      <c r="E791" s="5" t="n">
+        <v>44298.4930902778</v>
       </c>
     </row>
   </sheetData>
@@ -22109,8 +25065,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22130,64 +25086,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1282</v>
+        <v>1481</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1283</v>
+        <v>1482</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1284</v>
+        <v>1483</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1285</v>
+        <v>1484</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1286</v>
+        <v>1485</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1287</v>
+        <v>1486</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1288</v>
+        <v>1487</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1289</v>
+        <v>1488</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1290</v>
+        <v>1489</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1291</v>
+        <v>1490</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1292</v>
+        <v>1491</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1293</v>
+        <v>1492</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1294</v>
+        <v>1493</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1295</v>
+        <v>1494</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>1296</v>
+        <v>1495</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1297</v>
+        <v>1496</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>1298</v>
+        <v>1497</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>1299</v>
+        <v>1498</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>1300</v>
+        <v>1499</v>
       </c>
       <c r="U1" s="6"/>
     </row>
@@ -22196,7 +25152,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -22205,37 +25161,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1305</v>
+        <v>1504</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>1306</v>
+        <v>1505</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1305</v>
+        <v>1504</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -22258,7 +25214,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -22267,37 +25223,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>1308</v>
+        <v>1507</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>1309</v>
+        <v>1508</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>1308</v>
+        <v>1507</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -22320,7 +25276,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -22329,37 +25285,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>1311</v>
+        <v>1510</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>1312</v>
+        <v>1511</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1311</v>
+        <v>1510</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -22382,7 +25338,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -22391,37 +25347,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1314</v>
+        <v>1513</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>1315</v>
+        <v>1514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>1314</v>
+        <v>1513</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -22453,7 +25409,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -22462,40 +25418,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>1316</v>
+        <v>1515</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1317</v>
+        <v>1516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>1316</v>
+        <v>1515</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>1318</v>
+        <v>1517</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -22512,10 +25468,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>1319</v>
+        <v>1518</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>16</v>
@@ -22524,40 +25480,40 @@
         <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>1320</v>
+        <v>1519</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>1321</v>
+        <v>1520</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>1320</v>
+        <v>1519</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>1322</v>
+        <v>1521</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>44257.5193865741</v>
@@ -22569,7 +25525,7 @@
         <v>44257.5388310185</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>1323</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22577,7 +25533,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -22586,40 +25542,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>1324</v>
+        <v>1523</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>1325</v>
+        <v>1524</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>1324</v>
+        <v>1523</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>1326</v>
+        <v>1525</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -22639,7 +25595,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -22648,40 +25604,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1327</v>
+        <v>1526</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>1328</v>
+        <v>1527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>1327</v>
+        <v>1526</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>1329</v>
+        <v>1528</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -22701,7 +25657,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -22710,40 +25666,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1330</v>
+        <v>1529</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>1331</v>
+        <v>1530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>1330</v>
+        <v>1529</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>1332</v>
+        <v>1531</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -22763,7 +25719,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -22772,40 +25728,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>1333</v>
+        <v>1532</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>1334</v>
+        <v>1533</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>1333</v>
+        <v>1532</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -22825,7 +25781,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -22834,40 +25790,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>1336</v>
+        <v>1535</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>1337</v>
+        <v>1536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>1336</v>
+        <v>1535</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1338</v>
+        <v>1537</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -22887,7 +25843,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -22896,40 +25852,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>1339</v>
+        <v>1538</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>1340</v>
+        <v>1539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>1339</v>
+        <v>1538</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1341</v>
+        <v>1540</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -22949,7 +25905,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -22958,40 +25914,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>1342</v>
+        <v>1541</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>1343</v>
+        <v>1542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>1342</v>
+        <v>1541</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1344</v>
+        <v>1543</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -23012,7 +25968,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -23021,40 +25977,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>1345</v>
+        <v>1544</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>1346</v>
+        <v>1545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>1345</v>
+        <v>1544</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>1347</v>
+        <v>1546</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -23069,7 +26025,7 @@
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1348</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23077,7 +26033,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -23086,40 +26042,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>1349</v>
+        <v>1548</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>1350</v>
+        <v>1549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1349</v>
+        <v>1548</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>1351</v>
+        <v>1550</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -23139,7 +26095,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -23148,40 +26104,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>1352</v>
+        <v>1551</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>1353</v>
+        <v>1552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>1352</v>
+        <v>1551</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>1354</v>
+        <v>1553</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -23201,7 +26157,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -23210,40 +26166,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>1355</v>
+        <v>1554</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>1356</v>
+        <v>1555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>1355</v>
+        <v>1554</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>1357</v>
+        <v>1556</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -23263,7 +26219,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -23272,40 +26228,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>1358</v>
+        <v>1557</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>1359</v>
+        <v>1558</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1358</v>
+        <v>1557</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1360</v>
+        <v>1559</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -23325,7 +26281,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -23334,40 +26290,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>1361</v>
+        <v>1560</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>1362</v>
+        <v>1561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>1361</v>
+        <v>1560</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1363</v>
+        <v>1562</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -23387,7 +26343,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -23396,40 +26352,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>1364</v>
+        <v>1563</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>1365</v>
+        <v>1564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>1364</v>
+        <v>1563</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1366</v>
+        <v>1565</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -23449,7 +26405,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -23458,40 +26414,40 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>1367</v>
+        <v>1566</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>1368</v>
+        <v>1567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>1367</v>
+        <v>1566</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1369</v>
+        <v>1568</v>
       </c>
       <c r="Q23" s="10" t="n">
         <v>44264.5567013889</v>
@@ -23511,7 +26467,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -23520,40 +26476,40 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>1370</v>
+        <v>1569</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>1371</v>
+        <v>1570</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>1370</v>
+        <v>1569</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1372</v>
+        <v>1571</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>44263.5583912037</v>
@@ -23568,7 +26524,7 @@
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1373</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23576,7 +26532,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -23585,40 +26541,40 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>1374</v>
+        <v>1573</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>1375</v>
+        <v>1574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>1374</v>
+        <v>1573</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1376</v>
+        <v>1575</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>44264.5606134259</v>
@@ -23639,7 +26595,7 @@
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -23648,40 +26604,40 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>1377</v>
+        <v>1576</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>1378</v>
+        <v>1577</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>1377</v>
+        <v>1576</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1379</v>
+        <v>1578</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>44263.5318055556</v>
@@ -23701,7 +26657,7 @@
         <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>76</v>
@@ -23710,40 +26666,40 @@
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>1380</v>
+        <v>1579</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>1381</v>
+        <v>1580</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>1380</v>
+        <v>1579</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>1382</v>
+        <v>1581</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>44271.506087963</v>
@@ -23758,7 +26714,7 @@
         <v>44832</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1383</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23766,7 +26722,7 @@
         <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -23775,40 +26731,40 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>1384</v>
+        <v>1583</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>1385</v>
+        <v>1584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>1384</v>
+        <v>1583</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>1386</v>
+        <v>1585</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>44270.5090162037</v>
@@ -23828,7 +26784,7 @@
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -23837,40 +26793,40 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>1387</v>
+        <v>1586</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>1388</v>
+        <v>1587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1387</v>
+        <v>1586</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>1389</v>
+        <v>1588</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>44270.5151157407</v>
@@ -23890,7 +26846,7 @@
         <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -23899,40 +26855,40 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1390</v>
+        <v>1589</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>1391</v>
+        <v>1590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>1390</v>
+        <v>1589</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1392</v>
+        <v>1591</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>44278.5690740741</v>
@@ -23952,7 +26908,7 @@
         <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -23961,40 +26917,40 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>1393</v>
+        <v>1592</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>1394</v>
+        <v>1593</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1393</v>
+        <v>1592</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>1395</v>
+        <v>1594</v>
       </c>
       <c r="Q31" s="11" t="n">
         <v>44277.5395717593</v>
@@ -24014,7 +26970,7 @@
         <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -24023,40 +26979,40 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1396</v>
+        <v>1595</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>1397</v>
+        <v>1596</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>1396</v>
+        <v>1595</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1398</v>
+        <v>1597</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>44285.4767476852</v>
@@ -24076,7 +27032,7 @@
         <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>16</v>
@@ -24085,40 +27041,40 @@
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>1399</v>
+        <v>1598</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>1400</v>
+        <v>1599</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>1399</v>
+        <v>1598</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>1401</v>
+        <v>1600</v>
       </c>
       <c r="Q33" s="11" t="n">
         <v>44284.5104050926</v>
@@ -24133,7 +27089,7 @@
         <v>44832</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1402</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24141,7 +27097,7 @@
         <v>1152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -24150,40 +27106,40 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1403</v>
+        <v>1602</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>1404</v>
+        <v>1603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1403</v>
+        <v>1602</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>1405</v>
+        <v>1604</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>44292.4588194444</v>
@@ -24203,7 +27159,7 @@
         <v>1193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -24212,40 +27168,40 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>1406</v>
+        <v>1605</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1407</v>
+        <v>1606</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1406</v>
+        <v>1605</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>1408</v>
+        <v>1607</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>44291.5216666667</v>
@@ -24265,7 +27221,7 @@
         <v>1250</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>166</v>
@@ -24274,60 +27230,63 @@
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1409</v>
+        <v>1608</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>1410</v>
+        <v>1609</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1409</v>
+        <v>1608</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Q36" s="12" t="n">
+        <v>1610</v>
+      </c>
+      <c r="Q36" s="4" t="n">
         <v>44299.4730555556</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="4" t="n">
         <v>44299.4834722222</v>
       </c>
-      <c r="S36" s="12" t="n">
+      <c r="S36" s="4" t="n">
         <v>44299.4938888889</v>
       </c>
+      <c r="T36" s="8" t="n">
+        <v>44841</v>
+      </c>
       <c r="U36" s="3" t="s">
-        <v>1412</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -24336,45 +27295,60 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1413</v>
+        <v>1612</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>1414</v>
+        <v>1613</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1413</v>
+        <v>1612</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Q37" s="4" t="n">
+        <v>44298.4692361111</v>
+      </c>
+      <c r="R37" s="4" t="n">
+        <v>44298.4796527778</v>
+      </c>
+      <c r="S37" s="4" t="n">
+        <v>44298.4900694444</v>
+      </c>
+      <c r="T37" s="8" t="n">
+        <v>44842</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>1415</v>
+        <v>1367</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -24383,45 +27357,60 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>1416</v>
+        <v>1615</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>1417</v>
+        <v>1616</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1416</v>
+        <v>1615</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>44299.4758449074</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>44299.4862615741</v>
+      </c>
+      <c r="S38" s="5" t="n">
+        <v>44299.4966782407</v>
+      </c>
+      <c r="T38" s="12" t="n">
+        <v>44844</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>1418</v>
+        <v>1388</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -24430,45 +27419,57 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>1419</v>
+        <v>1618</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>1420</v>
+        <v>1619</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>1419</v>
+        <v>1618</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q39" s="5" t="n">
+        <v>44298.4722569444</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>44298.4826736111</v>
+      </c>
+      <c r="S39" s="5" t="n">
+        <v>44298.4930902778</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1421</v>
+        <v>1621</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>126</v>
@@ -24477,45 +27478,45 @@
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1422</v>
+        <v>1622</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>1423</v>
+        <v>1623</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>1422</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1424</v>
+        <v>1624</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -24524,45 +27525,45 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1425</v>
+        <v>1625</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>1426</v>
+        <v>1626</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1425</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1427</v>
+        <v>1627</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -24571,37 +27572,37 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1302</v>
+        <v>1501</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1303</v>
+        <v>1502</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1304</v>
+        <v>1503</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1428</v>
+        <v>1628</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>1429</v>
+        <v>1629</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1428</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -24623,10 +27624,10 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -24638,19 +27639,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1430</v>
+        <v>1630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1431</v>
+        <v>1631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1432</v>
+        <v>1632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1282</v>
+        <v>1481</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1433</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24658,19 +27659,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1434</v>
+        <v>1634</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1435</v>
+        <v>1635</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1326</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24678,19 +27679,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1437</v>
+        <v>1637</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1438</v>
+        <v>1638</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1318</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24698,19 +27699,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1439</v>
+        <v>1639</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1322</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24718,16 +27719,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1441</v>
+        <v>1641</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1442</v>
+        <v>1642</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24735,19 +27736,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1443</v>
+        <v>1643</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1444</v>
+        <v>1644</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1379</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24755,19 +27756,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1445</v>
+        <v>1645</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1446</v>
+        <v>1646</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1372</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24775,19 +27776,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1447</v>
+        <v>1647</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1448</v>
+        <v>1648</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1376</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24795,19 +27796,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1447</v>
+        <v>1647</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1449</v>
+        <v>1649</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1369</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24815,19 +27816,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1439</v>
+        <v>1639</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1389</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24835,19 +27836,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1451</v>
+        <v>1651</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1452</v>
+        <v>1652</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1386</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24855,16 +27856,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1453</v>
+        <v>1653</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1454</v>
+        <v>1654</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24872,19 +27873,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1455</v>
+        <v>1655</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1456</v>
+        <v>1656</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1382</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24892,19 +27893,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1457</v>
+        <v>1657</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1458</v>
+        <v>1658</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1395</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24912,16 +27913,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1459</v>
+        <v>1659</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1460</v>
+        <v>1660</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24929,16 +27930,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1461</v>
+        <v>1661</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1462</v>
+        <v>1662</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24946,19 +27947,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1463</v>
+        <v>1663</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1464</v>
+        <v>1664</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1436</v>
+        <v>1636</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1392</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24966,19 +27967,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1451</v>
+        <v>1651</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1465</v>
+        <v>1665</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1401</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24986,16 +27987,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1467</v>
+        <v>1667</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1468</v>
+        <v>1668</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25003,16 +28004,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1469</v>
+        <v>1669</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1470</v>
+        <v>1670</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25020,19 +28021,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1471</v>
+        <v>1671</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1472</v>
+        <v>1672</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1398</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25040,19 +28041,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1473</v>
+        <v>1673</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1474</v>
+        <v>1674</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1408</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25060,16 +28061,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1475</v>
+        <v>1675</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1476</v>
+        <v>1676</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25077,19 +28078,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1477</v>
+        <v>1677</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1478</v>
+        <v>1678</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1405</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25097,16 +28098,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1479</v>
+        <v>1679</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1480</v>
+        <v>1680</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25114,16 +28115,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1481</v>
+        <v>1681</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1482</v>
+        <v>1682</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25131,16 +28135,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1483</v>
+        <v>1683</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1484</v>
+        <v>1684</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25148,16 +28155,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1485</v>
+        <v>1685</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1486</v>
+        <v>1686</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25165,19 +28175,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1481</v>
+        <v>1681</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1487</v>
+        <v>1687</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1411</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25185,16 +28195,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1488</v>
+        <v>1688</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1489</v>
+        <v>1689</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25202,16 +28212,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1490</v>
+        <v>1690</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1491</v>
+        <v>1691</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25219,16 +28229,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1492</v>
+        <v>1692</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1493</v>
+        <v>1693</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25236,16 +28246,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1494</v>
+        <v>1694</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1495</v>
+        <v>1695</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25253,16 +28263,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1494</v>
+        <v>1694</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1496</v>
+        <v>1696</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25270,16 +28280,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1497</v>
+        <v>1697</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1498</v>
+        <v>1698</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25287,16 +28297,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1499</v>
+        <v>1699</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25304,16 +28314,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1501</v>
+        <v>1701</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1502</v>
+        <v>1702</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25321,16 +28331,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1503</v>
+        <v>1703</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1504</v>
+        <v>1704</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25338,16 +28348,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1494</v>
+        <v>1694</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1505</v>
+        <v>1705</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25355,16 +28365,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1506</v>
+        <v>1706</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1507</v>
+        <v>1707</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25372,16 +28382,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1508</v>
+        <v>1708</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1509</v>
+        <v>1709</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25389,19 +28399,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1510</v>
+        <v>1710</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1511</v>
+        <v>1711</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1335</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25409,16 +28419,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1512</v>
+        <v>1712</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1513</v>
+        <v>1713</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25426,19 +28436,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1477</v>
+        <v>1677</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1514</v>
+        <v>1714</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1332</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25446,19 +28456,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1515</v>
+        <v>1715</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1516</v>
+        <v>1716</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1329</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25466,16 +28476,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1517</v>
+        <v>1717</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1518</v>
+        <v>1718</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25483,19 +28493,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1519</v>
+        <v>1719</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1520</v>
+        <v>1720</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1341</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25503,19 +28513,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1521</v>
+        <v>1721</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1522</v>
+        <v>1722</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1344</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25523,19 +28533,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1523</v>
+        <v>1723</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1524</v>
+        <v>1724</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1338</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25543,19 +28553,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1525</v>
+        <v>1725</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1526</v>
+        <v>1726</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1354</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25563,19 +28573,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1527</v>
+        <v>1727</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1528</v>
+        <v>1728</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1347</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25583,19 +28593,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1529</v>
+        <v>1729</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1530</v>
+        <v>1730</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1351</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25603,16 +28613,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1531</v>
+        <v>1731</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1532</v>
+        <v>1732</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25620,19 +28630,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1313</v>
+        <v>1512</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1533</v>
+        <v>1733</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1534</v>
+        <v>1734</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1366</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25640,19 +28650,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1310</v>
+        <v>1509</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1535</v>
+        <v>1735</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1536</v>
+        <v>1736</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1360</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25660,19 +28670,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1307</v>
+        <v>1506</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1537</v>
+        <v>1737</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1538</v>
+        <v>1738</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1363</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25680,19 +28690,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1301</v>
+        <v>1500</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1539</v>
+        <v>1739</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1540</v>
+        <v>1740</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1466</v>
+        <v>1666</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1357</v>
+        <v>1556</v>
       </c>
     </row>
   </sheetData>

--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1763">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -4467,6 +4467,75 @@
     <t xml:space="preserve">2021-04-12T11:38:47.067877228Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-12T11:38:55.817919637Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:39:23.193210386Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:39:27.693338237Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:39:29.693353524Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:40:16.068788515Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:40:19.693741877Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:42:23.070062768Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:43:35.320831033Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:42:50.695366163Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:42:59.070456521Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:43:42.945981434Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:43:55.446115141Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:44:29.196380969Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:44:59.571681240Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:45:25.571939095Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:45:34.322069369Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:45:38.947098090Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:45:56.947374706Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:46:16.072582937Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:46:28.572610853Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:48:46.199113551Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:49:16.949359619Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-21 11:39:19</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP_treat</t>
   </si>
   <si>
@@ -4888,9 +4957,6 @@
   </si>
   <si>
     <t xml:space="preserve">R8BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-21 11:39:19</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-17 10:25:39</t>
@@ -5290,12 +5356,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5332,7 +5404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5353,7 +5425,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5361,15 +5441,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5398,6 +5486,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -5406,12 +5554,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K791"/>
+  <dimension ref="A1:K805"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A782" activeCellId="0" sqref="A782"/>
+      <selection pane="bottomLeft" activeCell="D804" activeCellId="0" sqref="D804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24890,7 +25038,7 @@
       <c r="D781" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="E781" s="0" t="s">
+      <c r="E781" s="5" t="s">
         <v>1480</v>
       </c>
       <c r="F781" s="1" t="s">
@@ -24904,12 +25052,21 @@
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B782" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C782" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D782" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E782" s="0" t="s">
+        <v>1482</v>
+      </c>
       <c r="F782" s="1" t="s">
         <v>12</v>
       </c>
@@ -24917,16 +25074,25 @@
         <v>1388</v>
       </c>
       <c r="J782" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="B783" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C783" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D783" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>1484</v>
+      </c>
       <c r="F783" s="1" t="s">
         <v>12</v>
       </c>
@@ -24938,12 +25104,21 @@
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="B784" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C784" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D784" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E784" s="0" t="s">
+        <v>1486</v>
+      </c>
       <c r="F784" s="1" t="s">
         <v>12</v>
       </c>
@@ -24951,16 +25126,25 @@
         <v>1388</v>
       </c>
       <c r="J784" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B785" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C785" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D785" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E785" s="0" t="s">
+        <v>1488</v>
+      </c>
       <c r="F785" s="1" t="s">
         <v>12</v>
       </c>
@@ -24968,16 +25152,25 @@
         <v>1388</v>
       </c>
       <c r="J785" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="B786" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C786" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D786" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E786" s="0" t="s">
+        <v>1490</v>
+      </c>
       <c r="F786" s="1" t="s">
         <v>12</v>
       </c>
@@ -24985,16 +25178,25 @@
         <v>1388</v>
       </c>
       <c r="J786" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B787" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C787" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D787" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E787" s="0" t="s">
+        <v>1492</v>
+      </c>
       <c r="F787" s="1" t="s">
         <v>12</v>
       </c>
@@ -25002,16 +25204,25 @@
         <v>1388</v>
       </c>
       <c r="J787" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B788" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C788" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D788" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E788" s="0" t="s">
+        <v>1494</v>
+      </c>
       <c r="F788" s="1" t="s">
         <v>12</v>
       </c>
@@ -25019,16 +25230,25 @@
         <v>1388</v>
       </c>
       <c r="J788" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B789" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C789" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="D789" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>1496</v>
+      </c>
       <c r="F789" s="1" t="s">
         <v>12</v>
       </c>
@@ -25036,15 +25256,234 @@
         <v>1388</v>
       </c>
       <c r="J789" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B790" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C790" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D790" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J790" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D791" s="5" t="n">
-        <v>44298.4826736111</v>
-      </c>
-      <c r="E791" s="5" t="n">
-        <v>44298.4930902778</v>
+      <c r="A791" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B791" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C791" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D791" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J791" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B792" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C792" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D792" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J792" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F793" s="1"/>
+      <c r="G793" s="3"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B794" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C794" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J794" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C795" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J795" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B796" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C796" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J796" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C797" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J797" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B798" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C798" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J798" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C799" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J799" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B800" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C800" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J800" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B801" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C801" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J801" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D803" s="6"/>
+      <c r="E803" s="6"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D805" s="7" t="s">
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -25065,8 +25504,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P39" activeCellId="0" sqref="P39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25086,73 +25525,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1481</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1482</v>
+        <v>1505</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1483</v>
+        <v>1506</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1484</v>
+        <v>1507</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1485</v>
+        <v>1508</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1486</v>
+        <v>1509</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1487</v>
+        <v>1510</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1488</v>
+        <v>1511</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1489</v>
+        <v>1512</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1490</v>
+        <v>1513</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1491</v>
+        <v>1514</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1492</v>
+        <v>1515</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1493</v>
+        <v>1516</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>1496</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>1497</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>1498</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>1499</v>
-      </c>
-      <c r="U1" s="6"/>
+        <v>1517</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -25161,37 +25600,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1504</v>
+        <v>1527</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>1505</v>
+        <v>1528</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1504</v>
+        <v>1527</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -25205,7 +25644,7 @@
       <c r="S2" s="4" t="n">
         <v>44334.4881944445</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="T2" s="9" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -25214,7 +25653,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -25223,37 +25662,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>1507</v>
+        <v>1530</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>1508</v>
+        <v>1531</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>1507</v>
+        <v>1530</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -25267,7 +25706,7 @@
       <c r="S3" s="4" t="n">
         <v>44287.503587963</v>
       </c>
-      <c r="T3" s="8" t="n">
+      <c r="T3" s="9" t="n">
         <v>44791</v>
       </c>
     </row>
@@ -25276,7 +25715,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -25285,37 +25724,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>1510</v>
+        <v>1533</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>1511</v>
+        <v>1534</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1510</v>
+        <v>1533</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -25329,7 +25768,7 @@
       <c r="S4" s="4" t="n">
         <v>44341.5120717593</v>
       </c>
-      <c r="T4" s="8" t="n">
+      <c r="T4" s="9" t="n">
         <v>44792</v>
       </c>
     </row>
@@ -25338,7 +25777,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -25347,37 +25786,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1513</v>
+        <v>1536</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>1514</v>
+        <v>1537</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>1513</v>
+        <v>1536</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -25391,25 +25830,25 @@
       <c r="S5" s="4" t="n">
         <v>44307.48125</v>
       </c>
-      <c r="T5" s="8" t="n">
+      <c r="T5" s="9" t="n">
         <v>44792</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -25418,40 +25857,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>1515</v>
+        <v>1538</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1516</v>
+        <v>1539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>1517</v>
+        <v>1538</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>1540</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -25462,70 +25901,70 @@
       <c r="S7" s="4" t="n">
         <v>44258.5444907407</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="9" t="n">
         <v>44802</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C8" s="3" t="n">
+    <row r="8" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="11" t="n">
         <v>291</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="G8" s="3" t="n">
+      <c r="E8" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>1502</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>1502</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M8" s="3" t="n">
+      <c r="H8" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Q8" s="4" t="n">
+      <c r="N8" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Q8" s="13" t="n">
         <v>44257.5193865741</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="13" t="n">
         <v>44257.5284143519</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="13" t="n">
         <v>44257.5388310185</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>1522</v>
+      <c r="T8" s="11" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25533,7 +25972,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -25542,40 +25981,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>1523</v>
+        <v>1546</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>1523</v>
+        <v>1546</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>1525</v>
+        <v>1548</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -25586,7 +26025,7 @@
       <c r="S9" s="4" t="n">
         <v>44256.548912037</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="9" t="n">
         <v>44802</v>
       </c>
     </row>
@@ -25595,7 +26034,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -25604,40 +26043,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1526</v>
+        <v>1549</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>1527</v>
+        <v>1550</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>1526</v>
+        <v>1549</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>1528</v>
+        <v>1551</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -25648,7 +26087,7 @@
       <c r="S10" s="4" t="n">
         <v>44343.4763194444</v>
       </c>
-      <c r="T10" s="8" t="n">
+      <c r="T10" s="9" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -25657,7 +26096,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -25666,40 +26105,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1529</v>
+        <v>1552</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>1530</v>
+        <v>1553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>1529</v>
+        <v>1552</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>1531</v>
+        <v>1554</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -25710,7 +26149,7 @@
       <c r="S11" s="4" t="n">
         <v>44341.4797685185</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="9" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -25719,7 +26158,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -25728,40 +26167,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>1532</v>
+        <v>1555</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>1533</v>
+        <v>1556</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>1532</v>
+        <v>1555</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>1534</v>
+        <v>1557</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -25772,7 +26211,7 @@
       <c r="S12" s="4" t="n">
         <v>44342.5156481481</v>
       </c>
-      <c r="T12" s="8" t="n">
+      <c r="T12" s="9" t="n">
         <v>44803</v>
       </c>
     </row>
@@ -25781,7 +26220,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -25790,40 +26229,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>1535</v>
+        <v>1558</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>1536</v>
+        <v>1559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>1535</v>
+        <v>1558</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1537</v>
+        <v>1560</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -25834,7 +26273,7 @@
       <c r="S13" s="4" t="n">
         <v>44400.4875694445</v>
       </c>
-      <c r="T13" s="8" t="n">
+      <c r="T13" s="9" t="n">
         <v>44812</v>
       </c>
     </row>
@@ -25843,7 +26282,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -25852,40 +26291,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>1538</v>
+        <v>1561</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>1539</v>
+        <v>1562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>1538</v>
+        <v>1561</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -25896,7 +26335,7 @@
       <c r="S14" s="4" t="n">
         <v>44399.5048726852</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="9" t="n">
         <v>44817</v>
       </c>
     </row>
@@ -25905,7 +26344,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -25914,40 +26353,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1543</v>
+        <v>1566</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -25958,7 +26397,7 @@
       <c r="S15" s="4" t="n">
         <v>44398.4913425926</v>
       </c>
-      <c r="T15" s="8" t="n">
+      <c r="T15" s="9" t="n">
         <v>44817</v>
       </c>
       <c r="U15" s="0"/>
@@ -25968,7 +26407,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -25977,40 +26416,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>1546</v>
+        <v>1569</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -26021,11 +26460,11 @@
       <c r="S16" s="4" t="n">
         <v>44404.4818055556</v>
       </c>
-      <c r="T16" s="8" t="n">
+      <c r="T16" s="9" t="n">
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1547</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26033,7 +26472,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -26042,40 +26481,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>1548</v>
+        <v>1571</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1548</v>
+        <v>1571</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>1550</v>
+        <v>1573</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -26086,7 +26525,7 @@
       <c r="S17" s="4" t="n">
         <v>44405.4751157407</v>
       </c>
-      <c r="T17" s="8" t="n">
+      <c r="T17" s="9" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -26095,7 +26534,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -26104,40 +26543,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>1551</v>
+        <v>1574</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>1552</v>
+        <v>1575</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>1551</v>
+        <v>1574</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>1553</v>
+        <v>1576</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -26148,7 +26587,7 @@
       <c r="S18" s="4" t="n">
         <v>44404.4858912037</v>
       </c>
-      <c r="T18" s="8" t="n">
+      <c r="T18" s="9" t="n">
         <v>44825</v>
       </c>
     </row>
@@ -26157,7 +26596,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -26166,40 +26605,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>1554</v>
+        <v>1577</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>1555</v>
+        <v>1578</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>1554</v>
+        <v>1577</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -26210,7 +26649,7 @@
       <c r="S19" s="4" t="n">
         <v>44412.4603819444</v>
       </c>
-      <c r="T19" s="8" t="n">
+      <c r="T19" s="9" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -26219,7 +26658,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -26228,40 +26667,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>1557</v>
+        <v>1580</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>1558</v>
+        <v>1581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>1557</v>
+        <v>1580</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1559</v>
+        <v>1582</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -26272,7 +26711,7 @@
       <c r="S20" s="4" t="n">
         <v>44411.4709722222</v>
       </c>
-      <c r="T20" s="8" t="n">
+      <c r="T20" s="9" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -26281,7 +26720,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -26290,40 +26729,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>1560</v>
+        <v>1583</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>1561</v>
+        <v>1584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>1560</v>
+        <v>1583</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1562</v>
+        <v>1585</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -26334,7 +26773,7 @@
       <c r="S21" s="4" t="n">
         <v>44412.4629398148</v>
       </c>
-      <c r="T21" s="8" t="n">
+      <c r="T21" s="9" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -26343,7 +26782,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -26352,40 +26791,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>1563</v>
+        <v>1586</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>1564</v>
+        <v>1587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>1563</v>
+        <v>1586</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1565</v>
+        <v>1588</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -26396,7 +26835,7 @@
       <c r="S22" s="4" t="n">
         <v>44411.4741782407</v>
       </c>
-      <c r="T22" s="8" t="n">
+      <c r="T22" s="9" t="n">
         <v>44826</v>
       </c>
     </row>
@@ -26405,7 +26844,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -26414,51 +26853,51 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>1566</v>
+        <v>1589</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>1567</v>
+        <v>1590</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>1566</v>
+        <v>1589</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="Q23" s="10" t="n">
+        <v>1591</v>
+      </c>
+      <c r="Q23" s="14" t="n">
         <v>44264.5567013889</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="R23" s="14" t="n">
         <v>44264.5671180556</v>
       </c>
-      <c r="S23" s="10" t="n">
+      <c r="S23" s="14" t="n">
         <v>44264.5775347222</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="T23" s="9" t="n">
         <v>44828</v>
       </c>
     </row>
@@ -26467,7 +26906,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -26476,40 +26915,40 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>1569</v>
+        <v>1592</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>1570</v>
+        <v>1593</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>1569</v>
+        <v>1592</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1571</v>
+        <v>1594</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>44263.5583912037</v>
@@ -26520,11 +26959,11 @@
       <c r="S24" s="4" t="n">
         <v>44263.579224537</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="T24" s="9" t="n">
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1572</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26532,7 +26971,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -26541,40 +26980,40 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>1573</v>
+        <v>1596</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>1574</v>
+        <v>1597</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>1573</v>
+        <v>1596</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1575</v>
+        <v>1598</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>44264.5606134259</v>
@@ -26585,7 +27024,7 @@
       <c r="S25" s="4" t="n">
         <v>44264.5814467593</v>
       </c>
-      <c r="T25" s="8" t="n">
+      <c r="T25" s="9" t="n">
         <v>44832</v>
       </c>
       <c r="U25" s="0"/>
@@ -26595,7 +27034,7 @@
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -26604,40 +27043,40 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>1576</v>
+        <v>1599</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>1577</v>
+        <v>1600</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>1576</v>
+        <v>1599</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1578</v>
+        <v>1601</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>44263.5318055556</v>
@@ -26648,7 +27087,7 @@
       <c r="S26" s="4" t="n">
         <v>44263.5526388889</v>
       </c>
-      <c r="T26" s="8" t="n">
+      <c r="T26" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -26657,7 +27096,7 @@
         <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>76</v>
@@ -26666,40 +27105,40 @@
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>1579</v>
+        <v>1602</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>1580</v>
+        <v>1603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>1579</v>
+        <v>1602</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>1581</v>
+        <v>1604</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>44271.506087963</v>
@@ -26710,11 +27149,11 @@
       <c r="S27" s="4" t="n">
         <v>44271.5269212963</v>
       </c>
-      <c r="T27" s="8" t="n">
+      <c r="T27" s="9" t="n">
         <v>44832</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1582</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26722,7 +27161,7 @@
         <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -26731,40 +27170,40 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>1583</v>
+        <v>1606</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>1583</v>
+        <v>1606</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>1585</v>
+        <v>1608</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>44270.5090162037</v>
@@ -26775,7 +27214,7 @@
       <c r="S28" s="4" t="n">
         <v>44270.529849537</v>
       </c>
-      <c r="T28" s="8" t="n">
+      <c r="T28" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -26784,7 +27223,7 @@
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -26793,40 +27232,40 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>1586</v>
+        <v>1609</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>1587</v>
+        <v>1610</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1586</v>
+        <v>1609</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>1588</v>
+        <v>1611</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>44270.5151157407</v>
@@ -26837,7 +27276,7 @@
       <c r="S29" s="4" t="n">
         <v>44270.5359490741</v>
       </c>
-      <c r="T29" s="8" t="n">
+      <c r="T29" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -26846,7 +27285,7 @@
         <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -26855,40 +27294,40 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>1590</v>
+        <v>1613</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1591</v>
+        <v>1614</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>44278.5690740741</v>
@@ -26899,7 +27338,7 @@
       <c r="S30" s="4" t="n">
         <v>44278.5899074074</v>
       </c>
-      <c r="T30" s="8" t="n">
+      <c r="T30" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -26908,7 +27347,7 @@
         <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -26917,51 +27356,51 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>1592</v>
+        <v>1615</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>1593</v>
+        <v>1616</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1592</v>
+        <v>1615</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="Q31" s="11" t="n">
+        <v>1617</v>
+      </c>
+      <c r="Q31" s="15" t="n">
         <v>44277.5395717593</v>
       </c>
-      <c r="R31" s="11" t="n">
+      <c r="R31" s="15" t="n">
         <v>44277.5499884259</v>
       </c>
-      <c r="S31" s="11" t="n">
+      <c r="S31" s="15" t="n">
         <v>44277.5604050926</v>
       </c>
-      <c r="T31" s="8" t="n">
+      <c r="T31" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -26970,7 +27409,7 @@
         <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -26979,40 +27418,40 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1595</v>
+        <v>1618</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>1596</v>
+        <v>1619</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>1595</v>
+        <v>1618</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1597</v>
+        <v>1620</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>44285.4767476852</v>
@@ -27023,7 +27462,7 @@
       <c r="S32" s="4" t="n">
         <v>44285.4975810185</v>
       </c>
-      <c r="T32" s="8" t="n">
+      <c r="T32" s="9" t="n">
         <v>44832</v>
       </c>
     </row>
@@ -27032,7 +27471,7 @@
         <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>16</v>
@@ -27041,55 +27480,55 @@
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>1599</v>
+        <v>1622</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>1600</v>
-      </c>
-      <c r="Q33" s="11" t="n">
+        <v>1623</v>
+      </c>
+      <c r="Q33" s="15" t="n">
         <v>44284.5104050926</v>
       </c>
-      <c r="R33" s="11" t="n">
+      <c r="R33" s="15" t="n">
         <v>44284.5208217593</v>
       </c>
-      <c r="S33" s="11" t="n">
+      <c r="S33" s="15" t="n">
         <v>44284.5312384259</v>
       </c>
-      <c r="T33" s="8" t="n">
+      <c r="T33" s="9" t="n">
         <v>44832</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1601</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27097,7 +27536,7 @@
         <v>1152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -27106,40 +27545,40 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1602</v>
+        <v>1625</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>1603</v>
+        <v>1626</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1602</v>
+        <v>1625</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>1604</v>
+        <v>1627</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>44292.4588194444</v>
@@ -27150,7 +27589,7 @@
       <c r="S34" s="4" t="n">
         <v>44292.4796527778</v>
       </c>
-      <c r="T34" s="8" t="n">
+      <c r="T34" s="9" t="n">
         <v>44833</v>
       </c>
     </row>
@@ -27159,7 +27598,7 @@
         <v>1193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -27168,40 +27607,40 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>1605</v>
+        <v>1628</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1606</v>
+        <v>1629</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1605</v>
+        <v>1628</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>1607</v>
+        <v>1630</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>44291.5216666667</v>
@@ -27212,7 +27651,7 @@
       <c r="S35" s="4" t="n">
         <v>44291.5425</v>
       </c>
-      <c r="T35" s="8" t="n">
+      <c r="T35" s="9" t="n">
         <v>44833</v>
       </c>
     </row>
@@ -27221,7 +27660,7 @@
         <v>1250</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>166</v>
@@ -27230,40 +27669,40 @@
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1608</v>
+        <v>1631</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>1609</v>
+        <v>1632</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>1608</v>
+        <v>1631</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>1610</v>
+        <v>1633</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>44299.4730555556</v>
@@ -27274,11 +27713,11 @@
       <c r="S36" s="4" t="n">
         <v>44299.4938888889</v>
       </c>
-      <c r="T36" s="8" t="n">
+      <c r="T36" s="9" t="n">
         <v>44841</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>1611</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27286,7 +27725,7 @@
         <v>1283</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -27295,40 +27734,40 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1612</v>
+        <v>1635</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>1613</v>
+        <v>1636</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1612</v>
+        <v>1635</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>1614</v>
+        <v>1637</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>44298.4692361111</v>
@@ -27339,7 +27778,7 @@
       <c r="S37" s="4" t="n">
         <v>44298.4900694444</v>
       </c>
-      <c r="T37" s="8" t="n">
+      <c r="T37" s="9" t="n">
         <v>44842</v>
       </c>
     </row>
@@ -27348,7 +27787,7 @@
         <v>1367</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -27357,51 +27796,51 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>1616</v>
+        <v>1639</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>1617</v>
-      </c>
-      <c r="Q38" s="5" t="n">
+        <v>1640</v>
+      </c>
+      <c r="Q38" s="6" t="n">
         <v>44299.4758449074</v>
       </c>
-      <c r="R38" s="5" t="n">
+      <c r="R38" s="6" t="n">
         <v>44299.4862615741</v>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>44299.4966782407</v>
       </c>
-      <c r="T38" s="12" t="n">
+      <c r="T38" s="16" t="n">
         <v>44844</v>
       </c>
     </row>
@@ -27410,7 +27849,7 @@
         <v>1388</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -27419,57 +27858,60 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>1618</v>
+        <v>1641</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>1619</v>
+        <v>1642</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>1618</v>
+        <v>1641</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="Q39" s="5" t="n">
+        <v>1643</v>
+      </c>
+      <c r="Q39" s="6" t="n">
         <v>44298.4722569444</v>
       </c>
-      <c r="R39" s="5" t="n">
+      <c r="R39" s="6" t="n">
         <v>44298.4826736111</v>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>44298.4930902778</v>
+      </c>
+      <c r="T39" s="16" t="n">
+        <v>44852</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1621</v>
+        <v>1644</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>126</v>
@@ -27478,45 +27920,45 @@
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>1503</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>1622</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>1623</v>
+        <v>1645</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>1622</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1624</v>
+        <v>1646</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -27525,45 +27967,45 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1625</v>
+        <v>1647</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1625</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1627</v>
+        <v>1649</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -27572,37 +28014,37 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1628</v>
+        <v>1650</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>1629</v>
+        <v>1651</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1628</v>
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -27639,19 +28081,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1630</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1631</v>
+        <v>1653</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1632</v>
+        <v>1654</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1481</v>
+        <v>1504</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1633</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27659,19 +28101,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1634</v>
+        <v>1535</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1656</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1635</v>
+        <v>1657</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1525</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27679,19 +28121,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1637</v>
+        <v>1532</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1659</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1638</v>
+        <v>1660</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27699,19 +28141,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1639</v>
+        <v>1529</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1661</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1640</v>
+        <v>1662</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1521</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27719,16 +28161,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1641</v>
+        <v>1523</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1663</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1642</v>
+        <v>1664</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27736,19 +28178,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>1643</v>
+        <v>1535</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1665</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1644</v>
+        <v>1666</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1578</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27756,19 +28198,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>1645</v>
+        <v>1532</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1667</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1646</v>
+        <v>1668</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1571</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27776,19 +28218,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1647</v>
+        <v>1529</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1669</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1648</v>
+        <v>1670</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1575</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27796,19 +28238,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1647</v>
+        <v>1523</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1669</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1568</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27816,19 +28258,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1639</v>
+        <v>1535</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1661</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1650</v>
+        <v>1672</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1588</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27836,19 +28278,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1651</v>
+        <v>1532</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1673</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1652</v>
+        <v>1674</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1585</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27856,16 +28298,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1653</v>
+        <v>1529</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1675</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1654</v>
+        <v>1676</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27873,19 +28315,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1655</v>
+        <v>1523</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1677</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1656</v>
+        <v>1678</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1581</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27893,19 +28335,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1657</v>
+        <v>1535</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1679</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>1658</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>1636</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>1594</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27913,16 +28355,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1659</v>
+        <v>1532</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1681</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1660</v>
+        <v>1682</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27930,16 +28372,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1661</v>
+        <v>1529</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1683</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1662</v>
+        <v>1684</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27947,19 +28389,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1663</v>
+        <v>1523</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1685</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1664</v>
+        <v>1686</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1636</v>
+        <v>1658</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1591</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27967,19 +28409,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1651</v>
+        <v>1535</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1673</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1665</v>
+        <v>1687</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1600</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27987,16 +28429,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1667</v>
+        <v>1532</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1689</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1668</v>
+        <v>1690</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28004,16 +28446,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1669</v>
+        <v>1529</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1691</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1670</v>
+        <v>1692</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28021,19 +28463,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1671</v>
+        <v>1523</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1693</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1672</v>
+        <v>1694</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1597</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28041,19 +28483,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1673</v>
+        <v>1535</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1695</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1674</v>
+        <v>1696</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1607</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28061,16 +28503,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1675</v>
+        <v>1532</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1697</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1676</v>
+        <v>1698</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28078,19 +28520,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1677</v>
+        <v>1529</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1699</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1678</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1604</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28098,16 +28540,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1679</v>
+        <v>1523</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1701</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1680</v>
+        <v>1702</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28115,19 +28557,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1681</v>
+        <v>1535</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1703</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1682</v>
+        <v>1704</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1620</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28135,19 +28577,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1683</v>
+        <v>1532</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1705</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1684</v>
+        <v>1706</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1614</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28155,19 +28597,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1685</v>
+        <v>1529</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1707</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1686</v>
+        <v>1708</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1617</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28175,19 +28617,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1681</v>
+        <v>1523</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1703</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1687</v>
+        <v>1709</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1610</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28195,16 +28637,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C30" s="13" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>1688</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28212,16 +28654,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1690</v>
+        <v>1532</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1712</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1691</v>
+        <v>1713</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28229,16 +28671,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1692</v>
+        <v>1529</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1714</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1693</v>
+        <v>1715</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28246,16 +28688,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1694</v>
+        <v>1523</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1716</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1695</v>
+        <v>1717</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28263,16 +28705,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1694</v>
+        <v>1535</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>1716</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1696</v>
+        <v>1718</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28280,16 +28722,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1697</v>
+        <v>1532</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1719</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1698</v>
+        <v>1720</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28297,16 +28739,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1699</v>
+        <v>1529</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1721</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1700</v>
+        <v>1722</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28314,16 +28756,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1701</v>
+        <v>1523</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1723</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1702</v>
+        <v>1724</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28331,16 +28773,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1703</v>
+        <v>1535</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1725</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1704</v>
+        <v>1726</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28348,16 +28790,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1694</v>
+        <v>1532</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1716</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1705</v>
+        <v>1727</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28365,16 +28807,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1706</v>
+        <v>1529</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1728</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1707</v>
+        <v>1729</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28382,16 +28824,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1708</v>
+        <v>1523</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>1730</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1709</v>
+        <v>1731</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28399,19 +28841,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1710</v>
+        <v>1535</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1732</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1711</v>
+        <v>1733</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1534</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28419,16 +28861,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1712</v>
+        <v>1532</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1734</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1713</v>
+        <v>1735</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28436,19 +28878,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1677</v>
+        <v>1529</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1699</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1714</v>
+        <v>1736</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1531</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28456,19 +28898,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1715</v>
+        <v>1523</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>1737</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1716</v>
+        <v>1738</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1528</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28476,16 +28918,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1717</v>
+        <v>1535</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1739</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1718</v>
+        <v>1740</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28493,19 +28935,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1719</v>
+        <v>1532</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>1741</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1720</v>
+        <v>1742</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28513,19 +28955,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1721</v>
+        <v>1529</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>1743</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1722</v>
+        <v>1744</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1543</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28533,19 +28975,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1723</v>
+        <v>1523</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>1745</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1724</v>
+        <v>1746</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1537</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28553,19 +28995,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1725</v>
+        <v>1535</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>1747</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1553</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28573,19 +29015,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1727</v>
+        <v>1532</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>1749</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1728</v>
+        <v>1750</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1546</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28593,19 +29035,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>1729</v>
+        <v>1529</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1751</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1730</v>
+        <v>1752</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1550</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28613,16 +29055,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>1731</v>
+        <v>1523</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>1753</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1732</v>
+        <v>1754</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28630,19 +29072,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>1733</v>
+        <v>1535</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>1755</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1734</v>
+        <v>1756</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1565</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28650,19 +29092,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>1735</v>
+        <v>1532</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>1757</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1736</v>
+        <v>1758</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1559</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28670,19 +29112,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>1737</v>
+        <v>1529</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>1759</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1738</v>
+        <v>1760</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1562</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28690,19 +29132,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>1739</v>
+        <v>1523</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>1761</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1740</v>
+        <v>1762</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1666</v>
+        <v>1688</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>

--- a/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
+++ b/Annotation_and_Cross_Validation/Grooming_Classifier_CrossVal_Aug2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1862">
   <si>
     <t xml:space="preserve">Actor</t>
   </si>
@@ -4533,436 +4533,727 @@
     <t xml:space="preserve">2021-04-12T11:49:16.949359619Z</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-20T11:25:50.478637864Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:47.354393157Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:26:00.478713703Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:26:07.603762747Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:26:57.229074098Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:06.229131873Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:01.479099248Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:04.354120916Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:03.354116332Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:07.354140044Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:28.104314649Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:27:32.229298414Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:28:59.104834632Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:30:20.480360394Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:30:22.105383464Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:30:25.480399178Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:30:49.355574025Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:31:23.105762089Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:31:38.980864295Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:31:41.605878561Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:32:45.356283820Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:32:51.231342311Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:33:21.981503398Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:33:24.731516981Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:33:45.731647626Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:35:18.357225890Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:34:02.231754413Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:34:08.231795976Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:34:32.356959113Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:34:42.732029821Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:34:55.857091571Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:35:05.232129684Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:35:03.357143006Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:35:23.232253934Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:35:33.482339878Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:36:36.857742143Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:36:10.732562787Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:36:37.357745129Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:36:13.857585015Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:36:51.857828038Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:01.857884801Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:35.483102213Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:08.732944425Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:19.358000516Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:45.608181724Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:59.108239596Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:37:50.483228306Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:38:37.233418389Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:39:28.733786903Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:39:41.733905339Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:40:03.483951928Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:40:09.609017266Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:41:44.234634432Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:42:34.109971429Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:42:36.109985044Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:42:41.610002556Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:43:11.610198826Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:43:58.235532128Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:44:04.735531177Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:44:29.860746570Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:44:26.110616952Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:44:33.736178260Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:48:57.237452740Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:48:59.612341909Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:49:24.612474175Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:49:58.738205304Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:51:37.238433875Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20T11:51:42.988696319Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:11:56.100412324Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:12:57.725974522Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:13:59.351714350Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:14:52.102241089Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:16:57.228623888Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:17:08.103742155Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:18:10.604383961Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:18:14.729437922Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:19:20.355118317Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:20:22.981165137Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:21:50.856785233Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:22:48.357334540Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:23:02.857475524Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:23:45.983099423Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:24:42.358562433Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:25:31.484083608Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:26:02.234560565Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:26:30.359798019Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:28:51.611248182Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:28:57.486361311Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:28:56.236345840Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:29:15.736564805Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:29:20.987004576Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:30:34.362412937Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:31:22.362935073Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19T11:31:34.238070164Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REP_treat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagIDdecimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colony_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsQueen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surviv_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReturnExposed_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReturnExp_+2min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReturnExp_+17min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReturnExp_+32min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done on day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-18 11:26:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-14 12:03:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-31 11:44:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-27 11:23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25 11:52:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-21 10:25:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20 11:10:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16 10:34:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02 12:45:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-26 11:46:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-01T12:32:04.764589326Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03 12:36:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-27 12:00:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02T12:25:55.869574991Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS AS UPSIDE DOWN, REDO WITH OTHER ANT OF COL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02 12:51:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-26 11:56:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-01T12:38:26.843046670Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-26 11:01:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-22 11:27:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25T10:53:54.789839743Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-26 11:07:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-22 11:21:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25T10:58:52.513207286Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25 11:59:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-21 10:25:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-24T11:50:32.815157394Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-22 11:19:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-18 10:03:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-21T11:10:06.007874343Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-21 11:47:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-17 10:10:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-20T11:35:01.790590966Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-22 11:26:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-18 10:07:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-21T11:15:30.425974958Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-28 11:15:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-24 10:13:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-27T11:01:48.983634875Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changing ant 23 with 11 as 23 stays on the wall for some time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-29 11:03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-25 10:36:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-28T10:52:10.091312287Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-28 11:17:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-24 10:13:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-27T11:07:41.081048473Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-05 10:42:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-01 10:27:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04T10:30:57.905386657Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04 10:57:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-31 10:19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-03T10:46:12.866857271Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-05 10:42:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-01 10:28:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04T10:34:38.894327924Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04 10:57:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-31 10:22:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-03T10:50:49.188676119Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:36:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-06 12:05:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09T13:19:39.599356925Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09 13:35:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-05 12:29:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T13:22:05.910780688Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 22 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:36:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-06 12:05:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09T13:25:17.038809125Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09 12:53:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-05 12:30:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08T12:43:48.073395425Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17 12:18:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-13 13:34:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T12:06:46.003141827Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 70 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 12:23:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-12 11:40:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:10:59.446780677Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 12:30:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-12 11:49:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T12:19:46.660599323Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-24 13:50:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-20 11:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23T13:37:28.152649342Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23 13:09:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-19 12:05:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-22T12:54:59.677954409Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-31 11:36:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-27 11:23:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30T11:24:31.330272460Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30 12:23:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 11:51:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-29T12:12:59.252327264Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 21 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-07 11:11:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-03 11:26:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06T10:58:42.107330175Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06 12:42:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-02 10:52:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05T12:29:12.982122808Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-14 11:32:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-10 11:03:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:19:12.054737763Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 182 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13 11:34:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-09 10:31:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:13:42.974555355Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-14 11:34:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-10 11:53:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13T11:23:13.131731957Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13 11:36:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-09 10:37:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-12T11:18:03.554728772Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-04-21 11:39:19</t>
   </si>
   <si>
-    <t xml:space="preserve">REP_treat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tagIDdecimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identifEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colony_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsAlive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsQueen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surviv_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_exposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReturnExposed_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReturnExp_+2min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReturnExp_+17min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReturnExp_+32min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done on day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-18 11:26:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-14 12:03:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-31 11:44:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-27 11:23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-25 11:52:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-21 10:25:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-20 11:10:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-16 10:34:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-02 12:45:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-26 11:46:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-01T12:32:04.764589326Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-03 12:36:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-27 12:00:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-02T12:25:55.869574991Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO OBS AS UPSIDE DOWN, REDO WITH OTHER ANT OF COL?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-02 12:51:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-26 11:56:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-01T12:38:26.843046670Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-26 11:01:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-22 11:27:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-25T10:53:54.789839743Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-26 11:07:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-22 11:21:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-25T10:58:52.513207286Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-25 11:59:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-21 10:25:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-24T11:50:32.815157394Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-22 11:19:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-18 10:03:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-21T11:10:06.007874343Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-21 11:47:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-17 10:10:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-20T11:35:01.790590966Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-22 11:26:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-18 10:07:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-21T11:15:30.425974958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-28 11:15:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-24 10:13:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-27T11:01:48.983634875Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changing ant 23 with 11 as 23 stays on the wall for some time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-29 11:03:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-25 10:36:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-28T10:52:10.091312287Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-28 11:17:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-24 10:13:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-27T11:07:41.081048473Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-05 10:42:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-01 10:27:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-04T10:30:57.905386657Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-04 10:57:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-31 10:19:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-03T10:46:12.866857271Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-05 10:42:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-01 10:28:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-04T10:34:38.894327924Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-04 10:57:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-31 10:22:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-03T10:50:49.188676119Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-10 13:36:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-06 12:05:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-09T13:19:39.599356925Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-09 13:35:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-05 12:29:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-08T13:22:05.910780688Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO OBS FOR 22 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-10 13:36:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-06 12:05:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-09T13:25:17.038809125Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-09 12:53:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-05 12:30:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-08T12:43:48.073395425Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-17 12:18:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-13 13:34:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-16T12:06:46.003141827Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO OBS FOR 70 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-16 12:23:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-12 11:40:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-15T12:10:59.446780677Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-16 12:30:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-12 11:49:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-15T12:19:46.660599323Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-24 13:50:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-20 11:50:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-23T13:37:28.152649342Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-23 13:09:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-19 12:05:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-22T12:54:59.677954409Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-31 11:36:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-27 11:23:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-30T11:24:31.330272460Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-30 12:23:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-26 11:51:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-29T12:12:59.252327264Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO OBS FOR 21 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-07 11:11:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-03 11:26:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-06T10:58:42.107330175Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-06 12:42:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-02 10:52:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-05T12:29:12.982122808Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-14 11:32:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-10 11:03:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-13T11:19:12.054737763Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO OBS FOR 182 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-13 11:34:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-09 10:31:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-12T11:13:42.974555355Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-14 11:34:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-10 11:53:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-13T11:23:13.131731957Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-13 11:36:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-09 10:37:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-12T11:18:03.554728772Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8BP</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-04-17 10:25:39</t>
   </si>
   <si>
-    <t xml:space="preserve">R8BS</t>
+    <t xml:space="preserve">2021-04-20T11:23:31.352769157Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO OBS FOR 126 AS UPSIDE DOWN, REDONE WITH OTHER ANT OF COL</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-20 11:15:29</t>
@@ -4971,7 +5262,7 @@
     <t xml:space="preserve">2021-04-16 10:34:44</t>
   </si>
   <si>
-    <t xml:space="preserve">R8SP</t>
+    <t xml:space="preserve">2021-04-19T11:10:09.849270589Z</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-21 11:43:09</t>
@@ -4980,6 +5271,9 @@
     <t xml:space="preserve">2021-04-17 10:25:35</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-20T11:31:14.441619883Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">REP.N</t>
   </si>
   <si>
@@ -4990,6 +5284,9 @@
   </si>
   <si>
     <t xml:space="preserve">adjusted.daylightSav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return_time</t>
   </si>
   <si>
     <t xml:space="preserve">12:35</t>
@@ -5433,12 +5730,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -5554,12 +5851,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K805"/>
+  <dimension ref="A1:K870"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A837" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D804" activeCellId="0" sqref="D804"/>
+      <selection pane="bottomLeft" activeCell="A844" activeCellId="0" sqref="A844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25342,148 +25639,1681 @@
       <c r="G793" s="3"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="n">
+        <v>116</v>
+      </c>
       <c r="B794" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C794" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D794" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E794" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J794" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B795" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C795" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D795" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J795" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B796" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C796" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D796" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E796" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J796" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B797" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C797" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D797" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J797" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B798" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C798" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D798" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E798" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J798" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B799" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C799" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D799" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J799" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B800" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C800" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D800" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J800" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B801" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C801" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D801" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J801" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B802" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C802" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D802" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J802" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B803" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C803" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D803" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E803" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J803" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B804" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C804" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D804" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E804" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J804" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B805" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C805" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D805" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E805" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J805" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B806" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C806" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D806" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E806" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J806" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B807" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C807" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D807" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J807" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B808" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C808" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J808" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B809" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C809" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D809" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J809" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B810" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C810" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D810" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J810" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B811" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C811" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D811" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E811" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J811" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B812" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C812" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D812" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J812" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B813" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C813" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D813" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E813" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J813" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B814" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C814" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D814" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E814" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J814" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B815" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C815" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D815" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E815" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J815" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B816" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C816" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D816" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E816" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J816" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B817" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C817" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D817" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E817" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J817" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B818" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C818" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D818" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E818" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J818" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B819" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C819" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D819" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E819" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J819" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B820" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C820" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D820" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E820" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J820" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B821" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C821" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D821" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E821" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J821" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B822" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C822" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D822" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E822" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J822" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B823" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C823" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D823" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E823" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J823" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B824" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C824" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D824" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E824" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J824" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B825" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C825" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D825" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E825" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J825" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C794" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F794" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G794" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J794" s="0" t="n">
+      <c r="B826" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C826" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D826" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E826" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J826" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B795" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C795" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F795" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G795" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J795" s="0" t="n">
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B827" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C827" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D827" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J827" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B796" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C796" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F796" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G796" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J796" s="0" t="n">
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B828" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C828" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D828" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E828" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J828" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B797" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C797" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F797" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G797" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J797" s="0" t="n">
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="3"/>
+      <c r="C829" s="3"/>
+      <c r="F829" s="1"/>
+      <c r="G829" s="3"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B830" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C830" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D830" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J830" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B831" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C831" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D831" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E831" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J831" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B832" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C832" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D832" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E832" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J832" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B833" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C833" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D833" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E833" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J833" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B834" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C834" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D834" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E834" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J834" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B835" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C835" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D835" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E835" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J835" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B836" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C836" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D836" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E836" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J836" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B837" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C837" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D837" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E837" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J837" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B838" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C838" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D838" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E838" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J838" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B839" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C839" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D839" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E839" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G839" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J839" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B798" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C798" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F798" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G798" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J798" s="0" t="n">
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B840" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C840" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D840" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E840" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J840" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B799" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C799" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F799" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G799" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J799" s="0" t="n">
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B841" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C841" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D841" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E841" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J841" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B800" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C800" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F800" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G800" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J800" s="0" t="n">
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B842" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C842" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D842" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E842" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J842" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B801" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="C801" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="F801" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G801" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J801" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D803" s="6"/>
-      <c r="E803" s="6"/>
-    </row>
-    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D805" s="7" t="s">
-        <v>1503</v>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="3"/>
+      <c r="C843" s="3"/>
+      <c r="F843" s="1"/>
+      <c r="G843" s="3"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C844" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J844" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C845" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J845" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C846" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G846" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J846" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B847" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C847" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G847" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J847" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B848" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C848" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G848" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J848" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B849" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C849" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G849" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J849" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C850" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G850" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J850" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C851" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G851" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J851" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C852" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G852" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J852" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B853" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C853" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G853" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J853" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B854" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C854" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G854" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J854" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C855" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G855" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J855" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B856" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C856" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G856" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J856" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B857" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C857" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G857" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J857" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B858" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C858" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G858" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J858" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B859" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C859" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G859" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J859" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B860" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C860" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G860" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J860" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B861" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C861" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G861" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J861" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B862" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C862" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G862" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J862" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B863" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C863" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G863" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J863" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B864" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C864" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G864" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J864" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B865" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C865" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G865" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J865" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B866" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C866" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G866" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J866" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B867" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C867" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D867" s="6"/>
+      <c r="E867" s="6"/>
+      <c r="F867" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G867" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J867" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D870" s="6" t="n">
+        <v>44306.4918287037</v>
+      </c>
+      <c r="E870" s="6" t="n">
+        <v>44306.5022453704</v>
       </c>
     </row>
   </sheetData>
@@ -25504,8 +27334,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R42" activeCellId="0" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25525,73 +27355,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1504</v>
+        <v>1600</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1505</v>
+        <v>1601</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1506</v>
+        <v>1602</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1507</v>
+        <v>1603</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1508</v>
+        <v>1604</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1509</v>
+        <v>1605</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1510</v>
+        <v>1606</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1511</v>
+        <v>1607</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1512</v>
+        <v>1608</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1513</v>
+        <v>1609</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1514</v>
+        <v>1610</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1515</v>
+        <v>1611</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1516</v>
+        <v>1612</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>1519</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>1520</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="U1" s="8"/>
+        <v>1613</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>83</v>
@@ -25600,37 +27430,37 @@
         <v>288</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>186</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>1527</v>
+        <v>1620</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1623</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>1528</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>1527</v>
+      <c r="N2" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>1623</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>44333.4663773148</v>
@@ -25653,7 +27483,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>33</v>
@@ -25662,37 +27492,37 @@
         <v>585</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>1530</v>
+        <v>1620</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1626</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>1530</v>
+      <c r="N3" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>1626</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>44285.4813657407</v>
@@ -25715,7 +27545,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>149</v>
@@ -25724,37 +27554,37 @@
         <v>477</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>1533</v>
+        <v>1620</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>1629</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>1534</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>1533</v>
+      <c r="N4" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>1629</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>44340.489849537</v>
@@ -25777,7 +27607,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>15</v>
@@ -25786,37 +27616,37 @@
         <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>1536</v>
+        <v>1620</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>1632</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>1537</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>1536</v>
+      <c r="N5" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>1632</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>44305.4590277778</v>
@@ -25835,20 +27665,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>84</v>
@@ -25857,40 +27687,40 @@
         <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>155</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>1538</v>
+        <v>1620</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>1634</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>1539</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>1538</v>
+      <c r="N7" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>1634</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>1540</v>
+        <v>1636</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>44256.5236574074</v>
@@ -25907,10 +27737,10 @@
     </row>
     <row r="8" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>1541</v>
+        <v>1637</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>16</v>
@@ -25919,40 +27749,40 @@
         <v>291</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>1525</v>
+        <v>1621</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>1525</v>
+        <v>1621</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>1526</v>
+        <v>1622</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1542</v>
+        <v>1638</v>
       </c>
       <c r="M8" s="11" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>1543</v>
+        <v>1639</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>1542</v>
+        <v>1638</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>1544</v>
+        <v>1640</v>
       </c>
       <c r="Q8" s="13" t="n">
         <v>44257.5193865741</v>
@@ -25964,7 +27794,7 @@
         <v>44257.5388310185</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>1545</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25972,7 +27802,7 @@
         <v>225</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>22</v>
@@ -25981,40 +27811,40 @@
         <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>1546</v>
+        <v>1620</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>1642</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>1546</v>
+      <c r="N9" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>1642</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>1548</v>
+        <v>1644</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>44256.5280787037</v>
@@ -26034,7 +27864,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>45</v>
@@ -26043,40 +27873,40 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>1549</v>
+        <v>1620</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>1645</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>1550</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>1549</v>
+      <c r="N10" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>1645</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>1551</v>
+        <v>1647</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>44341.4554861111</v>
@@ -26096,7 +27926,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>29</v>
@@ -26105,40 +27935,40 @@
         <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>1552</v>
+        <v>1620</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>1648</v>
       </c>
       <c r="M11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>1553</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>1552</v>
+      <c r="N11" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>1648</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>1554</v>
+        <v>1650</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>44341.4589351852</v>
@@ -26158,7 +27988,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>13</v>
@@ -26167,40 +27997,40 @@
         <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>1555</v>
+        <v>1620</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>1651</v>
       </c>
       <c r="M12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>1556</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>1555</v>
+      <c r="N12" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>1651</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>1557</v>
+        <v>1653</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>44340.4948148148</v>
@@ -26220,7 +28050,7 @@
         <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>166</v>
@@ -26229,40 +28059,40 @@
         <v>520</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>1558</v>
+        <v>1620</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>1654</v>
       </c>
       <c r="M13" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>1558</v>
+      <c r="N13" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>1654</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>1560</v>
+        <v>1656</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>44398.4667361111</v>
@@ -26282,7 +28112,7 @@
         <v>361</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>90</v>
@@ -26291,40 +28121,40 @@
         <v>267</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>194</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>1561</v>
+        <v>1620</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>1657</v>
       </c>
       <c r="M14" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>1562</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>1561</v>
+      <c r="N14" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>1657</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>1563</v>
+        <v>1659</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>44397.4840393519</v>
@@ -26344,7 +28174,7 @@
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>11</v>
@@ -26353,40 +28183,40 @@
         <v>367</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G15" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>1564</v>
+        <v>1620</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>1660</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>1565</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>1564</v>
+      <c r="N15" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>1660</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1566</v>
+        <v>1662</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>44398.4704861111</v>
@@ -26407,7 +28237,7 @@
         <v>467</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>103</v>
@@ -26416,40 +28246,40 @@
         <v>329</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>181</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>1567</v>
+        <v>1620</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>1663</v>
       </c>
       <c r="M16" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>1568</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>1567</v>
+      <c r="N16" s="8" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>1663</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>44404.4609722222</v>
@@ -26464,7 +28294,7 @@
         <v>44825</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>1570</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26472,7 +28302,7 @@
         <v>529</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>27</v>
@@ -26481,40 +28311,40 @@
         <v>531</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>1571</v>
+        <v>1620</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>1667</v>
       </c>
       <c r="M17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>1572</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>1571</v>
+      <c r="N17" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>1667</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>1573</v>
+        <v>1669</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>44405.4542824074</v>
@@ -26534,7 +28364,7 @@
         <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>8</v>
@@ -26543,40 +28373,40 @@
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>1574</v>
+        <v>1620</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>1670</v>
       </c>
       <c r="M18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>1575</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>1574</v>
+      <c r="N18" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>1670</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>1576</v>
+        <v>1672</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>44404.4650578704</v>
@@ -26596,7 +28426,7 @@
         <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>112</v>
@@ -26605,40 +28435,40 @@
         <v>485</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>138</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>1577</v>
+        <v>1620</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>1673</v>
       </c>
       <c r="M19" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>1578</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>1577</v>
+      <c r="N19" s="8" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>1673</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>1579</v>
+        <v>1675</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>44412.4395486111</v>
@@ -26658,7 +28488,7 @@
         <v>691</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>28</v>
@@ -26667,40 +28497,40 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>165</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>1580</v>
+        <v>1620</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>1676</v>
       </c>
       <c r="M20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>1581</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>1580</v>
+      <c r="N20" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>1676</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>1582</v>
+        <v>1678</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>44411.4501388889</v>
@@ -26720,7 +28550,7 @@
         <v>702</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>21</v>
@@ -26729,40 +28559,40 @@
         <v>438</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>1583</v>
+        <v>1620</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>1679</v>
       </c>
       <c r="M21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>1583</v>
+      <c r="N21" s="8" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>1679</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>1585</v>
+        <v>1681</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>44412.4421064815</v>
@@ -26782,7 +28612,7 @@
         <v>753</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>25</v>
@@ -26791,40 +28621,40 @@
         <v>423</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>1586</v>
+        <v>1620</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>1682</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>1587</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>1586</v>
+      <c r="N22" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>1682</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1588</v>
+        <v>1684</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>44411.4533449074</v>
@@ -26844,7 +28674,7 @@
         <v>790</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>20</v>
@@ -26853,40 +28683,40 @@
         <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>1589</v>
+        <v>1620</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>1685</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>1590</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>1589</v>
+      <c r="N23" s="8" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>1685</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1591</v>
+        <v>1687</v>
       </c>
       <c r="Q23" s="14" t="n">
         <v>44264.5567013889</v>
@@ -26906,7 +28736,7 @@
         <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>16</v>
@@ -26915,40 +28745,40 @@
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>171</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>1592</v>
+        <v>1620</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>1688</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N24" s="7" t="s">
-        <v>1593</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>1592</v>
+      <c r="N24" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>1688</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>1594</v>
+        <v>1690</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>44263.5583912037</v>
@@ -26963,7 +28793,7 @@
         <v>44831</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1595</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26971,7 +28801,7 @@
         <v>880</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>14</v>
@@ -26980,40 +28810,40 @@
         <v>255</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>1596</v>
+        <v>1620</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>1596</v>
+      <c r="N25" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>1692</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>1598</v>
+        <v>1694</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>44264.5606134259</v>
@@ -27034,7 +28864,7 @@
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>17</v>
@@ -27043,40 +28873,40 @@
         <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>1599</v>
+        <v>1620</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>1695</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="7" t="s">
-        <v>1600</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>1599</v>
+      <c r="N26" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>1695</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1601</v>
+        <v>1697</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>44263.5318055556</v>
@@ -27096,7 +28926,7 @@
         <v>947</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>76</v>
@@ -27105,40 +28935,40 @@
         <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>1602</v>
+        <v>1620</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>1698</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>1603</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>1602</v>
+      <c r="N27" s="8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>1698</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>1604</v>
+        <v>1700</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>44271.506087963</v>
@@ -27153,7 +28983,7 @@
         <v>44832</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1605</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27161,7 +28991,7 @@
         <v>987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>60</v>
@@ -27170,40 +29000,40 @@
         <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>1606</v>
+        <v>1620</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>1702</v>
       </c>
       <c r="M28" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>1607</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>1606</v>
+      <c r="N28" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>1702</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>1608</v>
+        <v>1704</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>44270.5090162037</v>
@@ -27223,7 +29053,7 @@
         <v>1009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>28</v>
@@ -27232,40 +29062,40 @@
         <v>547</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>1609</v>
+        <v>1620</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>1705</v>
       </c>
       <c r="M29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>1610</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>1609</v>
+      <c r="N29" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>1705</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>1611</v>
+        <v>1707</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>44270.5151157407</v>
@@ -27285,7 +29115,7 @@
         <v>1042</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>125</v>
@@ -27294,40 +29124,40 @@
         <v>407</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>1612</v>
+        <v>1620</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>1708</v>
       </c>
       <c r="M30" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>1613</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>1612</v>
+      <c r="N30" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>1708</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>1614</v>
+        <v>1710</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>44278.5690740741</v>
@@ -27347,7 +29177,7 @@
         <v>1067</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>9</v>
@@ -27356,40 +29186,40 @@
         <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>1615</v>
+        <v>1620</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>1711</v>
       </c>
       <c r="M31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>1616</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>1615</v>
+      <c r="N31" s="8" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>1711</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>1617</v>
+        <v>1713</v>
       </c>
       <c r="Q31" s="15" t="n">
         <v>44277.5395717593</v>
@@ -27409,7 +29239,7 @@
         <v>1100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>12</v>
@@ -27418,40 +29248,40 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>176</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>1618</v>
+        <v>1620</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>1714</v>
       </c>
       <c r="M32" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N32" s="7" t="s">
-        <v>1619</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>1618</v>
+      <c r="N32" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>1714</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1620</v>
+        <v>1716</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>44285.4767476852</v>
@@ -27471,7 +29301,7 @@
         <v>1119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>16</v>
@@ -27480,40 +29310,40 @@
         <v>362</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L33" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>1621</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>1717</v>
       </c>
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>1622</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>1621</v>
+      <c r="N33" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>1717</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>1623</v>
+        <v>1719</v>
       </c>
       <c r="Q33" s="15" t="n">
         <v>44284.5104050926</v>
@@ -27528,7 +29358,7 @@
         <v>44832</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>1624</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27536,7 +29366,7 @@
         <v>1152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -27545,40 +29375,40 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>32</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>1625</v>
+        <v>1620</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>1721</v>
       </c>
       <c r="M34" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N34" s="7" t="s">
-        <v>1626</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>1625</v>
+      <c r="N34" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>1721</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>1627</v>
+        <v>1723</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>44292.4588194444</v>
@@ -27598,7 +29428,7 @@
         <v>1193</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>21</v>
@@ -27607,40 +29437,40 @@
         <v>391</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>1628</v>
+        <v>1620</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>1724</v>
       </c>
       <c r="M35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N35" s="7" t="s">
-        <v>1629</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>1628</v>
+      <c r="N35" s="8" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>1724</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>1630</v>
+        <v>1726</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>44291.5216666667</v>
@@ -27660,7 +29490,7 @@
         <v>1250</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>166</v>
@@ -27669,40 +29499,40 @@
         <v>560</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>1631</v>
+        <v>1620</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>1727</v>
       </c>
       <c r="M36" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N36" s="7" t="s">
-        <v>1632</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>1631</v>
+      <c r="N36" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>1727</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>1633</v>
+        <v>1729</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>44299.4730555556</v>
@@ -27717,7 +29547,7 @@
         <v>44841</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>1634</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27725,7 +29555,7 @@
         <v>1283</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>180</v>
@@ -27734,40 +29564,40 @@
         <v>562</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>1635</v>
+        <v>1620</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>1731</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>1636</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>1635</v>
+      <c r="N37" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>1731</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>1637</v>
+        <v>1733</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>44298.4692361111</v>
@@ -27787,7 +29617,7 @@
         <v>1367</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>9</v>
@@ -27796,40 +29626,40 @@
         <v>205</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>1638</v>
+        <v>1620</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>1734</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N38" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>1638</v>
+      <c r="N38" s="8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>1734</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>1640</v>
+        <v>1736</v>
       </c>
       <c r="Q38" s="6" t="n">
         <v>44299.4758449074</v>
@@ -27849,7 +29679,7 @@
         <v>1388</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>13</v>
@@ -27858,40 +29688,40 @@
         <v>273</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>1641</v>
+        <v>1620</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>1737</v>
       </c>
       <c r="M39" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N39" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>1641</v>
+      <c r="N39" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>1737</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>1643</v>
+        <v>1739</v>
       </c>
       <c r="Q39" s="6" t="n">
         <v>44298.4722569444</v>
@@ -27908,57 +29738,75 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>1644</v>
+        <v>1505</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>403</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>180</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>1503</v>
+        <v>1620</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>1740</v>
       </c>
       <c r="M40" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>1645</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>1503</v>
+      <c r="N40" s="8" t="s">
+        <v>1741</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q40" s="6" t="n">
+        <v>44306.4760532407</v>
+      </c>
+      <c r="R40" s="6" t="n">
+        <v>44306.4864699074</v>
+      </c>
+      <c r="S40" s="6" t="n">
+        <v>44306.4968865741</v>
+      </c>
+      <c r="T40" s="16" t="n">
+        <v>44855</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>1646</v>
+        <v>1574</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>99</v>
@@ -27967,45 +29815,60 @@
         <v>296</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>188</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>1647</v>
+        <v>1620</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>1744</v>
       </c>
       <c r="M41" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>1648</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>1647</v>
+      <c r="N41" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Q41" s="6" t="n">
+        <v>44305.4667708333</v>
+      </c>
+      <c r="R41" s="6" t="n">
+        <v>44305.4771875</v>
+      </c>
+      <c r="S41" s="6" t="n">
+        <v>44305.4876041667</v>
+      </c>
+      <c r="T41" s="16" t="n">
+        <v>44855</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>1649</v>
+        <v>1599</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>16</v>
@@ -28014,37 +29877,49 @@
         <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1524</v>
+        <v>1620</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>31</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>1650</v>
+        <v>1620</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>1747</v>
       </c>
       <c r="M42" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>1651</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>1650</v>
+      <c r="N42" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q42" s="6" t="n">
+        <v>44306.481412037</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>44306.4918287037</v>
+      </c>
+      <c r="S42" s="6" t="n">
+        <v>44306.5022453704</v>
       </c>
     </row>
   </sheetData>
@@ -28065,8 +29940,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28081,19 +29956,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1652</v>
+        <v>1750</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1653</v>
+        <v>1751</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1654</v>
+        <v>1752</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1504</v>
+        <v>1600</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1655</v>
+        <v>1753</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28101,19 +29979,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1656</v>
+        <v>1755</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1657</v>
+        <v>1756</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1548</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28121,19 +29999,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1659</v>
+        <v>1758</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1660</v>
+        <v>1759</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1540</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28141,19 +30019,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1661</v>
+        <v>1760</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1662</v>
+        <v>1761</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1544</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28161,16 +30039,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1663</v>
+        <v>1762</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1664</v>
+        <v>1763</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28178,19 +30056,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1665</v>
+        <v>1764</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1666</v>
+        <v>1765</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1601</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28198,19 +30076,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1667</v>
+        <v>1766</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1668</v>
+        <v>1767</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>1594</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28218,19 +30096,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1669</v>
+        <v>1768</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1670</v>
+        <v>1769</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1598</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28238,19 +30116,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1669</v>
+        <v>1768</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1671</v>
+        <v>1770</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1591</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28258,19 +30136,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1661</v>
+        <v>1760</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1672</v>
+        <v>1771</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1611</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28278,19 +30156,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1673</v>
+        <v>1772</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1674</v>
+        <v>1773</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1608</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28298,16 +30176,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1675</v>
+        <v>1774</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1676</v>
+        <v>1775</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28315,19 +30193,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1677</v>
+        <v>1776</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1678</v>
+        <v>1777</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1604</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28335,19 +30213,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1679</v>
+        <v>1778</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1680</v>
+        <v>1779</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1617</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28355,16 +30233,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1681</v>
+        <v>1780</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1682</v>
+        <v>1781</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28372,16 +30250,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1683</v>
+        <v>1782</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1684</v>
+        <v>1783</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28389,19 +30267,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1685</v>
+        <v>1784</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1686</v>
+        <v>1785</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1658</v>
+        <v>1757</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1614</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28409,19 +30287,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1673</v>
+        <v>1772</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1687</v>
+        <v>1786</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1623</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28429,16 +30307,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1689</v>
+        <v>1788</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1690</v>
+        <v>1789</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28446,16 +30324,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1691</v>
+        <v>1790</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1692</v>
+        <v>1791</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28463,19 +30341,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1693</v>
+        <v>1792</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1694</v>
+        <v>1793</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1620</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28483,19 +30361,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1695</v>
+        <v>1794</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1696</v>
+        <v>1795</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1630</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28503,16 +30381,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1697</v>
+        <v>1796</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1698</v>
+        <v>1797</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28520,19 +30398,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1699</v>
+        <v>1798</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1700</v>
+        <v>1799</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1627</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28540,16 +30418,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1701</v>
+        <v>1800</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1702</v>
+        <v>1801</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28557,19 +30435,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1703</v>
+        <v>1802</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1704</v>
+        <v>1803</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1643</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28577,19 +30455,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1705</v>
+        <v>1804</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1706</v>
+        <v>1805</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1637</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28597,19 +30475,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1707</v>
+        <v>1806</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1708</v>
+        <v>1807</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1640</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28617,19 +30495,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>1703</v>
+        <v>1802</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1709</v>
+        <v>1808</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1633</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28637,16 +30515,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1710</v>
+        <v>1809</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1711</v>
+        <v>1810</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28654,16 +30532,19 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1712</v>
+        <v>1811</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1713</v>
+        <v>1812</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28671,16 +30552,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1714</v>
+        <v>1813</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1715</v>
+        <v>1814</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28688,16 +30572,19 @@
         <v>8</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1716</v>
+        <v>1815</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1717</v>
+        <v>1816</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28705,16 +30592,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>1716</v>
+        <v>1815</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1718</v>
+        <v>1817</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28722,16 +30609,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>1719</v>
+        <v>1818</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1720</v>
+        <v>1819</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28739,16 +30626,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>1721</v>
+        <v>1820</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1722</v>
+        <v>1821</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28756,16 +30643,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>1723</v>
+        <v>1822</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1724</v>
+        <v>1823</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28773,16 +30660,16 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>1725</v>
+        <v>1824</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1726</v>
+        <v>1825</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28790,16 +30677,16 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1716</v>
+        <v>1815</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1727</v>
+        <v>1826</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28807,16 +30694,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>1728</v>
+        <v>1827</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1729</v>
+        <v>1828</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28824,16 +30711,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>1730</v>
+        <v>1829</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1731</v>
+        <v>1830</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28841,19 +30728,19 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>1732</v>
+        <v>1831</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1733</v>
+        <v>1832</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1557</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28861,16 +30748,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>1734</v>
+        <v>1833</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1735</v>
+        <v>1834</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28878,19 +30765,19 @@
         <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>1699</v>
+        <v>1798</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1736</v>
+        <v>1835</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1554</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28898,19 +30785,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1737</v>
+        <v>1836</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1738</v>
+        <v>1837</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1551</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28918,16 +30805,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>1739</v>
+        <v>1838</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1740</v>
+        <v>1839</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28935,19 +30822,19 @@
         <v>12</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>1741</v>
+        <v>1840</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1742</v>
+        <v>1841</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1563</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28955,19 +30842,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>1743</v>
+        <v>1842</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1744</v>
+        <v>1843</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1566</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28975,19 +30862,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>1745</v>
+        <v>1844</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1746</v>
+        <v>1845</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1560</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28995,19 +30882,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>1747</v>
+        <v>1846</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1748</v>
+        <v>1847</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1576</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29015,19 +30902,19 @@
         <v>13</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1749</v>
+        <v>1848</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1750</v>
+        <v>1849</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1569</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29035,19 +30922,19 @@
         <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>1751</v>
+        <v>1850</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1752</v>
+        <v>1851</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1573</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29055,16 +30942,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>1753</v>
+        <v>1852</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1754</v>
+        <v>1853</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29072,19 +30959,19 @@
         <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1535</v>
+        <v>1631</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>1755</v>
+        <v>1854</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1756</v>
+        <v>1855</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1588</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29092,19 +30979,19 @@
         <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1532</v>
+        <v>1628</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>1757</v>
+        <v>1856</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1758</v>
+        <v>1857</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1582</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29112,19 +30999,19 @@
         <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1529</v>
+        <v>1625</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>1759</v>
+        <v>1858</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1760</v>
+        <v>1859</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1585</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29132,19 +31019,19 @@
         <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1523</v>
+        <v>1619</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>1761</v>
+        <v>1860</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1762</v>
+        <v>1861</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1688</v>
+        <v>1787</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1579</v>
+        <v>1675</v>
       </c>
     </row>
   </sheetData>
